--- a/udn.xlsx
+++ b/udn.xlsx
@@ -25,184 +25,184 @@
     <t>content</t>
   </si>
   <si>
-    <t>初九拜天公 今夜11點起拜法與民俗禁忌看這邊</t>
-  </si>
-  <si>
-    <t>西濱撞見「黃色小鴨」怪車開上路 內行人曝：一輛要30萬！</t>
-  </si>
-  <si>
-    <t>失智父帶13歲兒買晚餐忘歸途 寒風呆坐3小時警助返家有洋蔥</t>
-  </si>
-  <si>
-    <t>他撿到珍稀「黑太歲」養四年長大超過7公斤！多人瘋朝聖甚至出高價收購</t>
-  </si>
-  <si>
-    <t>收假前別忘了「初九拜天公」 民俗專家：誤觸3地雷恐衰整年</t>
-  </si>
-  <si>
-    <t>影／疑投資400萬失利 高雄陸配女疑持刀殺死女室友後墜樓亡</t>
-  </si>
-  <si>
-    <t>發票中獎卻領不出來 她一查「真相」後悔炸：只有我不曉得？</t>
-  </si>
-  <si>
-    <t>黑熊緊緊抱住老虎「瘋狂舔耳」超陶醉！網揭大貓淡定接受騷擾的心酸真相</t>
-  </si>
-  <si>
-    <t>小老虎「從上班睡到下班」猛搖狂吼都叫不醒！牠一臉不爽：虎年已過叫兔子來吧</t>
-  </si>
-  <si>
-    <t>不是Superdry！他見路人都穿「1品牌」超納悶 網曝關鍵：能不紅嗎</t>
-  </si>
-  <si>
-    <t>離奇！27歲男海巡隊員失聯多日 車停公路旁陳屍後車箱</t>
-  </si>
-  <si>
-    <t>「拜天公」前夕天公爐被埋雞頭 北台中城隍廟發文：會有報應</t>
-  </si>
-  <si>
-    <t>爭議首長留任讓她不敢置信 「小英男孩已成難刪部長」</t>
-  </si>
-  <si>
-    <t>好市多這飲料明天才折130元⋯他竟狂搬3大車 網曝一招不會虧</t>
-  </si>
-  <si>
-    <t>服抗憂鬱藥物昏睡 女大生就醫前借宿 慘遭男同學4度性侵</t>
-  </si>
-  <si>
-    <t>大樂透衝3.3億元！5生肖最旺 專家再曝招財撇步</t>
-  </si>
-  <si>
-    <t>影／高雄凶殺案 1女今墜樓氣絕 警發現屋內另1女也死亡</t>
-  </si>
-  <si>
-    <t>「財神未走」中科科技廠員工集資買刮刮樂中1萬 再買中百萬元</t>
-  </si>
-  <si>
-    <t>影／桃園麥當勞旁深夜傳爆炸聲 男持槍逼情敵炸飛他3手指</t>
-  </si>
-  <si>
-    <t>第3波內閣首長名單曝！吳釗燮、邱國正留任 陸委會副主委「他」入閣接任</t>
-  </si>
-  <si>
-    <t>https://udn.com/news/story/12813/6934698</t>
-  </si>
-  <si>
-    <t>https://udn.com/news/story/120911/6934726</t>
-  </si>
-  <si>
-    <t>https://udn.com/news/story/7320/6934696</t>
-  </si>
-  <si>
-    <t>https://udn.com/news/story/7470/6934769</t>
-  </si>
-  <si>
-    <t>https://udn.com/news/story/12813/6935510</t>
-  </si>
-  <si>
-    <t>https://udn.com/news/story/7320/6934957</t>
-  </si>
-  <si>
-    <t>https://udn.com/news/story/7266/6934793</t>
-  </si>
-  <si>
-    <t>https://udn.com/news/story/7470/6935185</t>
-  </si>
-  <si>
-    <t>https://udn.com/news/story/7470/6934804</t>
-  </si>
-  <si>
-    <t>https://udn.com/news/story/120911/6935614</t>
-  </si>
-  <si>
-    <t>https://udn.com/news/story/7320/6935462</t>
-  </si>
-  <si>
-    <t>https://udn.com/news/story/7320/6934772</t>
-  </si>
-  <si>
-    <t>https://udn.com/news/story/123286/6935311</t>
-  </si>
-  <si>
-    <t>https://udn.com/news/story/120911/6935258</t>
-  </si>
-  <si>
-    <t>https://udn.com/news/story/7317/6934709</t>
-  </si>
-  <si>
-    <t>https://udn.com/news/story/7266/6934971</t>
-  </si>
-  <si>
-    <t>https://udn.com/news/story/7315/6934838</t>
-  </si>
-  <si>
-    <t>https://udn.com/news/story/12813/6934719</t>
-  </si>
-  <si>
-    <t>https://udn.com/news/story/7315/6934861</t>
-  </si>
-  <si>
-    <t>https://udn.com/news/story/123286/6935543</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> __    大年初九   拜天公 拜天公拜天公因為是玉皇大帝的生日也是閩南語的天公生台灣民眾都會祭拜以祈求獲得一整年的好運命理師提醒今天深夜時起子時祭祀有一定的方式步驟也有禁忌例如祭拜時不能口出穢言祭祀當日禁屠都需特別注意命理施楊登嵙說台灣民間信仰除了平日的早晚燒香頂禮膜拜之外舉凡結婚做大壽時都要拜天公農曆正月初九是天上最高神明玉皇大帝的聖誕俗稱天日台灣閩南稱之為天公生意思就是天公的生日                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  玉皇大帝也就是上古時的昊天上帝簡稱為上帝或玉帝又稱為天公祖玉天大帝皇天上帝昊天金闕玉皇大帝等道經則多稱為玉皇大天尊及玄穹高上帝全銜為太上開天執符禦歷含真體道昊天玉皇上帝統禦諸天綜領萬聖主宰宇宙開化萬天楊登嵙說今天月日深夜時可開始直到翌日清晨時以前俗傳因為天公的神格非常尊貴因此越早敬供越有誠意準備金紙包括天金尺金大壽金壽金刈金土地公金合稱五色金甲馬白錢金錢或稱黃錢 __祭拜方式分成種一正式供桌又分頂桌和下桌一般居民在家正式祭祀天公時一律要在正廳天公爐下或戶外沒有遮蔽的地方擺設祭壇桌旁兩側各用紅線拴上一枝甘蔗祈求錢財能夠節節高升頂桌是給玉皇大帝的相傳玉帝茹齋禁葷因此全為素食墊金紙把八仙桌墊高再系在兩條長凳上並在桌前繫上吉祥圖案的桌圍上面供奉三個燈座三官大帝天官地官水官神位用紅綢墨書而成前面為香爐兩邊為燭台爐前放紮著紅紙的麵線塔紮紅紙麵線三束也可排列五果柑橘鳳梨蘋果李子香蕉等任取五樣六齋金針桂圓菜心香菇綠豆海帶木耳菀豆等任取六樣前設清茶杯在頂桌底面另置一桌謂之下桌為供奉玉皇大帝從神所設除五牲雞鴨魚豬肉或豬肚豬肝外還有糕仔米棗生仁紅龜稞等二簡單式供桌沒有頂桌和下桌只有單一平面在家門口外沒有遮蔽的的地方設供桌就像平常拜門口一樣只有平常的供桌但為求尊崇之意會在供桌的四隻腳底下墊上壽金供品一定要素的絕對不可以拜葷食一般是種水果 __拜天公的禁忌一首先祭祀前一律都要齋戒沐浴二有頂桌和下桌的正式祭祀頂桌一定是素食或水果下桌牲禮中的所獻的全雞必需是閹過的公雞鳳頭雞白毛雞母雞不能用以示對天公的尊敬三簡單式祭祀供品一定是素食或水果不可以葷食四燒給天公的金箔也與其他神明不同需用特製的大型天公金大壽金紙比一般金紙大一倍以上五祭祀當日禁止屠宰六不能曝曬女性的內衣褲及傾倒便桶以免不敬七禁忌男人揹水做飯據說如此可能罹患疾病八不可口出髒話穢語以免褻瀆了尊貴的天公而受到處罰 __                    今天深夜時起大年初九可進行拜天公的祭祀儀式命理師楊登嵙提醒民眾祭祀方式與禁忌記者陳宏睿攝影   今天深夜時起大年初九可進行拜天公的祭祀儀式命理師楊登嵙提醒民眾祭祀方式與禁忌記者陳宏睿攝影今天深夜時起大年初九可進行拜天公的祭祀儀式命理師楊登嵙提醒民眾祭祀方式與禁忌記者陳宏睿攝影 __                    今天深夜時起大年初九可進行拜天公的祭祀儀式命理師楊登嵙提醒民眾祭祀方式與禁忌圖楊登嵙提供   今天深夜時起大年初九可進行拜天公的祭祀儀式命理師楊登嵙提醒民眾祭祀方式與禁忌圖楊登嵙提供今天深夜時起大年初九可進行拜天公的祭祀儀式命理師楊登嵙提醒民眾祭祀方式與禁忌圖楊登嵙提供 __                    今天深夜時大年初九可進行拜天公的祭祀儀式命理師楊登嵙提醒民眾祭祀方式與禁忌圖楊登嵙提供   今天深夜時大年初九可進行拜天公的祭祀儀式命理師楊登嵙提醒民眾祭祀方式與禁忌圖楊登嵙提供今天深夜時大年初九可進行拜天公的祭祀儀式命理師楊登嵙提醒民眾祭祀方式與禁忌圖楊登嵙提供                迎兔年春節懶人包一次看   __ _  年生肖太歲當頭狀況多有哪些要注意化解法一次看 __ _  生肖犯太歲轉運靠這次 怎麼安太歲點光明燈大禁忌別犯兩對象不能點 __ _  越冷越好運 生肖過年期間運勢最強財富桃花擋不住 __ _  年新春刮刮樂款一次看 這款每刮必中獎金 __ _  別再講兔年行大運兔年吉祥話盤點 讓你歡喜把錢兔出來 __ _  過年紅包怎麼包金額行情一次看 禁忌犯了小心觸衰     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> __          一位民眾過年期間行經西濱公路時發現有一輛外觀黃白橘配色像是黃色小鴨大小比機車還小的奇怪車輛在路上行駛影片曝光後引起網路熱議紛紛討論車種原在 ______ _貼出一段影片透露日前經過西濱公路往竹北市區方向行駛看到一輛造型神似飛船又像鞋子的全覆式躺車行駛在路肩配色遠遠看去有如黃色小鴨車的體型相當迷你高度僅一般車輛的一半若沒注意可能會不小心發生擦撞                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  不少網友看到後熱烈留言可愛但是很危險走西濱去淡水常常看到這台行走的棺材這也能上路車牌呢感覺沒注意到就會被輾過去有內行的網友指出這台是全覆式   自行車 自行車自行車價格至少一萬歐元約萬新台幣起跳是使用人力踩踏的三輪車可以躺著騎乘也有人稱為躺車據台灣法令雖然這款全覆式自行車是人力踩踏但因為是三輪非二輪並不視為自行車目前三輪以上慢車除了在特定觀光區域能夠騎乘其他大多數縣市地區都是禁止上路的此外若該輛三輪小車是以電力發動也會違反了道路交通管理處罰條例條非屬該條法定之動力器具於道路上行駛或使用者得處元至元以下罰鍰並禁止其行駛或使用     _         _ _ __ 全覆式躺車  旅途 _  旅途     旅途              </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> __       桃園 桃園桃園平鎮一對父子日傍晚外出購買晚餐但因歲的父親   失智症 失智症失智症突然發作直到晚間時許都還回不了家人僅穿著單薄的外套只能蹲坐在體感只有度的街頭不斷發抖男童更是凍到嚎啕大哭所幸路過的巡警發現才能讓父子平安返家平鎮警分局宋屋派出所副所長楊大廣表示家住平鎮庫房南路的鄭姓父子人相依為命父親身體及家境不好因此歲的男童平時都由北區兒童之家照料因農曆過年所以返家與父親團圓沒想到日傍晚父子一同外出購買晚餐卻因父親突然失智症發作忘了回家的路人又冷又累只能癱坐路旁男童更是冷到嚎啕大哭不知所措                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  所幸員警晚間時巡邏經過發現路旁哭泣的男童趕緊停下車輛上前關心看到男童凍的不斷發抖也立即遞上暖暖包讓男童暖手並利用警用系統查出父子的資料及住處再使用巡邏車護送返家休息結束這場虛驚員警知道父子倆生活的困境後也自掏腰包準備熱食及籌措各項民生物資讓父子享用並協助轉介平鎮區公所及張榮發基金會等社福單位辦理急難救助希望能幫助父子倆暫時度過難關讓父子倆相當感激 __                    歲的鄭姓男童蹲坐路邊暖警提供暖暖包及便當給男童並協助轉介平鎮區公所及張榮發基金會等社福單位辦理急難救助記者翁唯真翻攝   歲的鄭姓男童蹲坐路邊暖警提供暖暖包及便當給男童並協助轉介平鎮區公所及張榮發基金會等社福單位辦理急難救助記者翁唯真翻攝歲的鄭姓男童蹲坐路邊暖警提供暖暖包及便當給男童並協助轉介平鎮區公所及張榮發基金會等社福單位辦理急難救助記者翁唯真翻攝 __                    桃園平鎮一對父子日傍晚外出購買晚餐但因歲的父親失智症突然發作人僅穿著單薄的外套坐路旁警助返家記者翁唯真翻攝   桃園平鎮一對父子日傍晚外出購買晚餐但因歲的父親失智症突然發作人僅穿著單薄的外套坐路旁警助返家記者翁唯真翻攝桃園平鎮一對父子日傍晚外出購買晚餐但因歲的父親失智症突然發作人僅穿著單薄的外套坐路旁警助返家記者翁唯真翻攝     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> __    歲歲平安一名男子多年前撿到一個俗稱太歲的肉靈芝養了四年多這個太歲長超過一倍重已超過公斤他把這東西當寶人家出高價也不賣陸媒報導新疆一名許先生年承包水電工程在工地開挖土方石時意外撿到黑太歲肉靈芝的俗稱重公斤他帶回家用山泉水養起來經過四年這個黑太歲現在已長到公斤比當初的公斤多重超過一倍                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  許先生這個春節哪兒都沒去天天待在家裡觀賞他的黑太歲聽到許先生養了稀有的黑太歲許多親朋好友都跑來一睹為快還有人出高價收購但都被他拒絕    _  _     __    太歲是肉靈芝的俗稱是介於原生物與真菌間的大型黏菌複合體是由細菌真菌與黏菌種菌組合而成的稀有聚集物大陸民間認為肉靈芝是太歲神的化身在許多小說和藥書中都有記載秦始皇曾三次派人尋找當時被認為的長生不老藥但專家表示肉靈芝的收藏價值較高不建議真的拿來吃                迎兔年春節懶人包一次看   __ _  年生肖太歲當頭狀況多有哪些要注意化解法一次看 __ _  生肖犯太歲轉運靠這次 怎麼安太歲點光明燈大禁忌別犯兩對象不能點 __ _  越冷越好運 生肖過年期間運勢最強財富桃花擋不住 __ _  年新春刮刮樂款一次看 這款每刮必中獎金 __ _  別再講兔年行大運兔年吉祥話盤點 讓你歡喜把錢兔出來 __ _  過年紅包怎麼包金額行情一次看 禁忌犯了小心觸衰     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> __    今天是大年初八也是春假最後一天但明天是初九天公生玉皇大帝生日民俗專家廖大乙提醒收假前別忘了要   拜天公 拜天公拜天公今晚時子時起可備以三牲素果敬拜祭拜留心別誤踩地雷而褻瀆天公才不會   開運 開運開運不成還恐衰整年廖大乙指出今天雖是   春節 春節春節連假的最後一天實際上農曆年春節是到正月十五的   元宵節 元宵節元宵節其中正月初九天公生是玉皇大帝的生日在道教傳統信仰上玉皇大帝是在天庭統領眾神掌握與民眾生活息息相關的大小事務地位尊貴                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  正因玉皇大帝的地位尊貴相傳其聖誕就由陽數之首以及陽數之極所組成因此農曆正月初九是玉皇大帝的生日俗稱天公生而拜天公的時間通常是從初八晚上時子時開始可燃放鞭炮慶祝並備以素果供品敬拜廖大乙說今年農曆正月初九在月日也就是今年春節收假上班首日擔心收假首日忙又想當天祭拜的民眾今晚時子時起就能著手拜天公若明天來不及或忘記民眾也別擔心元宵節前都還來得及且每天隨時都能拜而拜天公雖不拘泥時間可到有供奉天公的廟宇或是直接向天朝拜均可但祭拜前仍須留心別誤踩地雷廖表示拜天公要注意心靈清淨也就是虔誠祈福心誠則靈因此祭拜前最好能齋戒沐浴祭拜時須端正儀容正因為拜天公最重要的就是誠心祈願祭拜時最好能向天公行三跪九叩大禮叩拜後並雙手合十稟報工作學業健康等心中所求之事反之最忌諱披頭散髮口出穢言供品禁葷食得用素的違反大地雷恐褻瀆天公而受罰衰整年廖大乙提到素食供品上建議使用紅圓發糕年糕生仁紅豆米荖和花生等帶有的年節供品也能用蘋果平安鳳梨旺來柑橘吉祥及柿子如意等水果再誠心向天敬祈國泰民安風調雨順並保佑自己   兔年 兔年兔年行運發大財   此為民俗說法不代表本新聞網立場切勿過度迷信  __                    大年初九是玉皇大帝的聖誕俗稱的天公生從今天初八晚上時子時起就能拜天公圖聯合報系資料照   大年初九是玉皇大帝的聖誕俗稱的天公生從今天初八晚上時子時起就能拜天公圖聯合報系資料照大年初九是玉皇大帝的聖誕俗稱的天公生從今天初八晚上時子時起就能拜天公圖聯合報系資料照                迎兔年春節懶人包一次看   __ _  年生肖太歲當頭狀況多有哪些要注意化解法一次看 __ _  生肖犯太歲轉運靠這次 怎麼安太歲點光明燈大禁忌別犯兩對象不能點 __ _  越冷越好運 生肖過年期間運勢最強財富桃花擋不住 __ _  年新春刮刮樂款一次看 這款每刮必中獎金 __ _  別再講兔年行大運兔年吉祥話盤點 讓你歡喜把錢兔出來 __ _  過年紅包怎麼包金額行情一次看 禁忌犯了小心觸衰     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> __          高雄市左營區一棟大樓今傳出凶殺案大樓管理員發現家住樓張姓婦人墜落中庭報警警方到場後張女已經身亡進屋查看卻發現邱女也倒臥屋內地板身有刀傷已明顯死亡警方在張女臥室找到沾血水果刀墜樓處的陽台也有血跡懷疑是張女殺害邱女後畏罪輕生目前已採驗水果刀跡證釐清詳細案發原因據了解張女歲是陸籍配偶丈夫住在高雄   榮民 榮民榮民之家去年月底張女搬到高雄和邱姓女友人及歲女兒在左營區華欣街一棟社區大樓租屋同住邱遊說張投資生意張砸下多萬重本後疑似失利張女要討回原本投資的錢未果疑因此埋下殺機                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  今上午時許警方接獲墜樓通報到場時發現張女倒臥在大樓中庭已明顯死亡經訪查後通知租屋處屋主開鎖結果一進房內在邱女臥室內發現邱女已經死亡地上還有一灘血跡邱女的歲女兒案發時不在家警方隨即拉起封鎖線循線檢視屋內環境在張女臥室內的垃圾桶找到一把沾有血跡的水果刀另從張女墜樓的陽台位置牆壁也發現血跡初步研判是張女持刀殺害邱女後丟棄水果刀畏罪輕生鑑識人員已採集血跡指紋比對釐清案發原因  珍惜生命若您或身邊的人有心理困擾可撥打安心專線生命線協談專線張老師專線 __                    高雄左營區一棟大樓今傳出命案警方到場後發現張女墜樓身亡另一名邱女則死在張女住處圖讀者提供   高雄左營區一棟大樓今傳出命案警方到場後發現張女墜樓身亡另一名邱女則死在張女住處圖讀者提供高雄左營區一棟大樓今傳出命案警方到場後發現張女墜樓身亡另一名邱女則死在張女住處圖讀者提供 __                    高雄左營區一棟大樓今傳出命案警方到場後發現張女墜樓身亡另一名邱女則死在租屋處內朝殺人案偵辦中記者石秀華攝影   高雄左營區一棟大樓今傳出命案警方到場後發現張女墜樓身亡另一名邱女則死在租屋處內朝殺人案偵辦中記者石秀華攝影高雄左營區一棟大樓今傳出命案警方到場後發現張女墜樓身亡另一名邱女則死在租屋處內朝殺人案偵辦中記者石秀華攝影     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> __    年月期   統一發票 統一發票統一發票日開獎有網友發現發票載具幸運對中了六獎到了   超商 超商超商後卻一直無法順利領出發票讓她百思不得其解上網一查了才得知真相也提醒大家以後發票要注意若遇到像她一樣的情況可能無法領獎一名網友在  _發文提到日前查看載具有一張中了六獎元的發票開心去了超商卻無法領獎詢問父母朋友都沒有人知道怎麼回事直到她上網查詢才知道元發票是不可以兌獎的原表示這張發票使用了禮卷因此金額為元對於不曉得元發票不能兌獎這件事感到相當難過因此她也提醒網友不知道是不是只有我不知道這個常識總之大家如果以後也遇到同樣的情況記得不要抵光所有消費金額喔如果不是兩百是一千萬就真的要哭出來了                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  貼文一出引起網友紛紛留言還好只是元當作花學經驗好險不是萬一直都是這樣喔所以為了保有領獎資格都會建議還是付一點小錢避免中大獎而不能領的悲劇點數折抵都會跟店員說折抵到剩元就好之前有人中萬也不能領天哪我也不知道還好我從來沒有元的發票一般來說像是用商品券全額支付的話是沒有發票出來的只有明細哦元發票通常也不會開出來也都是明細而已事實上依統一發票給獎辦法統一發票沒有金額或載明為零元負數不適用給獎的規定因此營業人如以紅利抵減貨款或退費就不需要開立無金額或金額載明為零或負數的統一發票以避免嗣後消費者中獎卻無法領獎衍生消費糾紛                迎兔年春節懶人包一次看   __ _  年生肖太歲當頭狀況多有哪些要注意化解法一次看 __ _  生肖犯太歲轉運靠這次 怎麼安太歲點光明燈大禁忌別犯兩對象不能點 __ _  越冷越好運 生肖過年期間運勢最強財富桃花擋不住 __ _  年新春刮刮樂款一次看 這款每刮必中獎金 __ _  別再講兔年行大運兔年吉祥話盤點 讓你歡喜把錢兔出來 __ _  過年紅包怎麼包金額行情一次看 禁忌犯了小心觸衰     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> __    超猛的跨物種友誼同為肉食猛獸的黑熊和孟加拉虎非常親暱還會抱著牠瘋狂舔耳老虎也像是司空見慣一樣淡然接受黑熊的撒嬌網友在臉書分享一段影片一隻黑熊緊抱著一隻孟加拉虎對著牠的耳朵又舔又咬熊爪放在老虎手上還不時輕搔看起來相當陶醉而老虎完全沒有反抗偶爾瞇一下眼對於黑熊的騷擾看來完全不以為意                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播        ___                             ___         _                                                                                                                                                                                                                                                                                     在  查看這則貼文                                                                                                                                                                                          ___         _ 分享的貼文   網友表示小熊維尼和跳跳虎原來熊也喜歡擼貓虎這隻好兇我還是先裝傻好了跨種族友誼兩個都是頂級獵食者也能當朋友事實上這對熊虎背後有段心酸的故事牠們最早是被美國一名從事非法交易的富豪豢養被用來角力互鬥年前被警方查獲當時黑熊老虎 和獅子被關在地下室同個籠子裡最後三隻動物被送到動保中心照顧由於牠們感情很好就讓其繼續生活在一起三隻不同種的猛獸感情就像一家人常一起在園內玩耍互相依偎撒嬌彼此非常親暱可惜獅子 年因腫瘤過世了剩下黑熊和老虎相依為命 __                    黑熊老虎 和獅子感情就像一家人圖取自   黑熊老虎 和獅子感情就像一家人圖取自黑熊老虎 和獅子感情就像一家人圖取自 _                        迎兔年春節懶人包一次看   __ _  年生肖太歲當頭狀況多有哪些要注意化解法一次看 __ _  生肖犯太歲轉運靠這次 怎麼安太歲點光明燈大禁忌別犯兩對象不能點 __ _  越冷越好運 生肖過年期間運勢最強財富桃花擋不住 __ _  年新春刮刮樂款一次看 這款每刮必中獎金 __ _  別再講兔年行大運兔年吉祥話盤點 讓你歡喜把錢兔出來 __ _  過年紅包怎麼包金額行情一次看 禁忌犯了小心觸衰     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> __    小朋友愛睡覺動物園一隻小老虎從早睡到晚飼育員狂搖都叫不醒死都不肯起床網友笑稱是不是知道虎年已過自己任務已結束所以不用起床陸媒報導山西一間動物園一隻小老虎奶豆從一大早就開始睡覺抱著牠的布偶躺在被窩裡不肯起來飼育員表示這隻小老虎一上班就睡覺一路睡到下班                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  飼育員用力搖牠的身體一邊大聲呼喚牠起床上班奶豆僅微微轉頭不爽的瞪了飼育員一眼還伸手手企圖想撥開飼育員最後閉上眼睛繼續夢周公    _  _     __    網友笑虎年過了多睡點過份嗎改叫兔子來上班啦人家是小嬰兒要多睡點才健康還抱著小玩偶睡覺超可愛虎年以後再叫我從小就學會上班摸魚老虎也懂躺平                迎兔年春節懶人包一次看   __ _  年生肖太歲當頭狀況多有哪些要注意化解法一次看 __ _  生肖犯太歲轉運靠這次 怎麼安太歲點光明燈大禁忌別犯兩對象不能點 __ _  越冷越好運 生肖過年期間運勢最強財富桃花擋不住 __ _  年新春刮刮樂款一次看 這款每刮必中獎金 __ _  別再講兔年行大運兔年吉祥話盤點 讓你歡喜把錢兔出來 __ _  過年紅包怎麼包金額行情一次看 禁忌犯了小心觸衰     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> __    天氣冷颼颼不少民眾都會穿著厚外套   保暖 保暖保暖對此就有一名網友文表示日前上網搜尋迪卡儂外套沒想到演算法出現大量 廣告且看到路上也很多人穿因此好奇詢問 外套真有那麼好嗎掀起網友熱議該名網友在    的板  _發文表示只是上網搜尋迪卡儂厚外套結果演算法就強力放送 廣告給他加上路上也很多人穿該   品牌 品牌品牌讓原不禁疑惑真的有那麼好嗎                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  貼文一出引發大批網友熱烈討論紛紛留言櫃位人潮很驚人路上真的滿多人穿欸上次經過他們櫃還要排隊進去在專櫃看到不少歲以上的客群覺得很震驚都找了韓星大咖來了能不紅嗎走紅就跟當初極度乾燥    一樣同事說便宜保暖我是沒買過還有網友分析指出重點是便宜尤其是我媽那種年紀不會網購的對這個牌子的接受度高因為網路上常看到廣告門市可以試穿價格便宜品牌形象有名人加持稍微有機能用途行銷很厲害是真的會勾起購買慾望外面很常看到路人穿證明行銷做得好很重要     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> __    一名住桃園歲連姓男   海巡署 海巡署海巡署隊員日前家屬通報失聯協尋   嘉義 嘉義嘉義縣警方於大年初七日接獲報案並於   阿里山 阿里山阿里山公路十字路往特富野產業道路發現連男車輛後見車上無人與當地居民展開地毯式搜尋無果後打開車輛搜尋時在後車箱驚見連男倒臥在內已沒有呼吸心跳檢警今天相驗初步判定無外力介入死因仍待進一步調查嘉義縣竹崎警分局昨天接獲通報協助搜尋已失聯天的連姓男子發現日連男不明原因自行駕車到嘉義縣阿里山公路昨天上午點多於阿里山公路公里處十字路往特富野產業道路上發現連男車輛停放於路旁並發現陳屍後車箱內                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  警方表示車輛無遭破壞痕跡員警發現當下車內沒人所以展開地毯式搜索未果打開車內找尋線索時赫然驚見連男倒臥在後車廂內緊急通報縣消防局趕往搶救施行急救後仍回天乏術  珍惜生命若您或身邊的人有心理困擾可撥打安心專線生命線協談專線張老師專線 __                    一名歲連姓男海巡署隊員失聯多日後昨天被發現車輛停在阿里山公路旁陳屍於後車廂圖翻攝阿里山鄒族道路部落資料臉書   一名歲連姓男海巡署隊員失聯多日後昨天被發現車輛停在阿里山公路旁陳屍於後車廂圖翻攝阿里山鄒族道路部落資料臉書一名歲連姓男海巡署隊員失聯多日後昨天被發現車輛停在阿里山公路旁陳屍於後車廂圖翻攝阿里山鄒族道路部落資料臉書     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> __    今天深夜時就是農曆初九屬於民俗信仰   拜天公 拜天公拜天公的日子不過北台中   城隍廟 城隍廟城隍廟凌晨在臉書發文控訴廟內的玉皇大帝天公爐發爐經清理後發現遭人埋入雞頭廟方指控會有報應收手吧有網友指稱恐是近月間在全台各地犯下類似案件的呂姓男子警方表示尚未獲報第二警分局文正所表示有關轄內北台中城隍廟的香爐遭人埋入雞頭一案尚未接獲廟方報案將派員前往了解若廟方提告將依法受理調閱監視器後依褻瀆祀典罪方向偵辦有關民眾提到犯案者疑為在全台各地廟宇犯下類似案件的呂姓男子將後續查明                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  北台中城隍廟在今天凌晨在臉書發文提到因為廟內的玉皇大帝天公爐發爐因此派員清理發現香爐最深處有一個塑膠袋裡面裝有雞頭雞頭埋的很深若依平常清理香腳的方式是不易察覺也提醒其他廟宇注意廟方表示奉勸涉案者知錯能改回頭是岸此行為破壞不了任何事任何人只會傷到自己做出對神不敬的事會有報應的只是時機未到收手吧廟方發文後有民眾在留言中提到涉案的可能是連月來在台中台中彰化等間宮廟犯下埋雞頭犯行的呂姓男子而呂男也被多個警方單位以褻瀆祀典罪送辦命理師楊登嵙說在台灣民俗   信仰 信仰信仰中發誓才會斬雞頭而玉皇大帝是道教最高神明今天拜天公的祭祀儀式雖然在正版的供桌有分上下桌上桌擺放素食下桌擺葷食但上桌是供奉給天公下桌則是供奉給天公旗下的天兵天將所以民眾若要簡式祭拜天公的話都是拜素食楊登嵙說今天適逢拜天公的日子而天公爐內卻被擺放葷食而且是雞頭屬於殺生不潔物品有破壞廟宇風水地理的意涵絕對沒有還願的意義甚至是有跟廟宇嗆賭台語嗆聲的意味此舉在民俗信仰中會造成該人運勢受影響或是傷亡 __                    北台中城隍廟在今天凌晨發文指控有人在天公爐內埋入雞頭圖摘自北台中城隍廟臉書   北台中城隍廟在今天凌晨發文指控有人在天公爐內埋入雞頭圖摘自北台中城隍廟臉書北台中城隍廟在今天凌晨發文指控有人在天公爐內埋入雞頭圖摘自北台中城隍廟臉書 __                    北台中城隍廟在今天凌晨發文指控有人在天公爐內埋入雞頭圖摘自北台中城隍廟臉書   北台中城隍廟在今天凌晨發文指控有人在天公爐內埋入雞頭圖摘自北台中城隍廟臉書北台中城隍廟在今天凌晨發文指控有人在天公爐內埋入雞頭圖摘自北台中城隍廟臉書 __                    北台中城隍廟在今天凌晨發文指控有人在天公爐內埋入雞頭圖摘自北台中城隍廟臉書   北台中城隍廟在今天凌晨發文指控有人在天公爐內埋入雞頭圖摘自北台中城隍廟臉書北台中城隍廟在今天凌晨發文指控有人在天公爐內埋入雞頭圖摘自北台中城隍廟臉書     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> __    台灣民眾黨立委   陳琬惠 陳琬惠陳琬惠今天表示準閣揆陳建仁昨天在臉書公布第二波   內閣 內閣內閣閣員名單除了新任的內政部長林右昌文化部長史哲國立故宮博物院院長蕭宗煌其餘皆是留任其中農委會主委   陳吉仲 陳吉仲陳吉仲的留任讓她不敢置信昔日的小英男孩已經成為難刪的部長陳建仁昨天公布第二波內閣名單新任閣員包括內政部長林右昌文化部長史哲國立故宮博物院院長蕭宗煌留任閣員則有數位發展部長唐鳳教育部長潘文忠交通部長王國材衛福部長薛瑞元及陳吉仲等人                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  陳琬惠今天在臉書發文表示她了解陳建仁的內閣想要維持現狀走安全牌路線但是所呈現的非是穩定而是任由爭議首長留任這使民眾沒有期待充分呈現民進黨政府的檢討只是嘴巴說說更別期待創新和改革陳琬惠還說對於陳吉仲的留任她感到不敢置信其跟經濟部長王美花有異曲同工之妙一個缺電另一則是缺蛋部長而且陳吉仲在任期內有諸多爭議包括事件開放萊豬班班吃石斑跳票農產品出口成問題等只能不斷使用補貼來掩蓋施政不力陳琬惠質疑我國不乏有志之士先前也有眾多人選躍躍欲試為何仍是陳吉仲留任昔日的小英男孩已經成為難刪的部長陳琬惠說現在看到這兩波內閣名單多為舊有面孔不禁讓人質疑改革魄力尤其近期光電用地爭議頻傳大幅影響農漁民權益和生態環境台南七股的鄉親甚至組團北上到總統府抗議此事涉及也不是只有農委會相關部會也需明確表態而非互相踢皮球陳琬惠再指政府想要復育國土傷痕必須停止礦產資源受到掠奪式的開發礦業法修法只剩下第七和第八會期的時間而第八會期又面臨下年度預算及大選代表礦業法修正已經是迫在眉睫陳琬惠建議立法院開議後能盡快召開黨團協商並且請經濟部提出讓民眾信服的解方為台灣立下永續國土利用的典範陳琬惠呼籲民進黨政府不能失去在野時的理想與追求還有一年多的任期陳建仁不能舊瓶裝新酒只組個看守內閣理應堅守崗位有所突破真正展現溫柔堅韌的一面     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> __    不少民眾喜歡去美式賣場   好市多 好市多好市多    採買生活物資一名網友結帳時看到有人竟買了三台推車的韓國飲料忍不住驚呼簡直奇景該網友日在臉書社團  _好市多商品經驗老實說貼照發文文中提到前方的顧客買了整整三台推車的韓國香蕉牛奶和草莓牛奶三台推車各箱飲料令他感到相當好奇                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  文章一出馬上有網友提出疑惑表示目前這款飲料官網售價元不過月日會有優惠一箱可便宜元應該才開始特價吧今天買這麼多是這下週買差很多錢耶他是不是以為有特價結果結帳發現沒有就不是下週才特價現在買箱是要展現財富自由佩服佩服也有內行人認為這位客人可能是   娃娃機 娃娃機娃娃機台業者沒意外的話是擺娃娃機的最近很流行夾零食是不是夾娃娃店買的最近有去夾過一次也可能是代購此外還有網友指出買貴可以選擇退貨特價時用特價的金額再結一次帳直接推去退前一筆原價他們提供一定時間內買貴可以對調退貨的服務避免會員沒注意到特價據  _報導好市多客服人員表示若發現買貴可選擇退貨但不會退差價亦無法用原本的商品重刷一次必須重新購買才能享有優惠     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> __       桃園 桃園桃園市湯姓男子邀罹患   憂鬱症 憂鬱症憂鬱症的大學女同學到家借住趁對方服藥昏睡時度   性侵 性侵性侵得逞事後狡辯否認稱是合意性交桃園地院認為他犯後態度不佳依個乘機性交罪判年月徒刑應執行年可上訴檢警調查湯姓男子歲的大學同學小蟬化患有憂鬱症需定期至學校附設醫院就診湯男得知後便在年月日日日日等天以陪同就醫隔天一同參加同學婚禮等原因邀小蟬到自己在桃園市的住處過夜                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  湯男明知小蟬服用憂鬱症藥物後會陷於昏睡卻趁她服藥後乘機性交小蟬起床後發現下體疼痛出血第一次以為是月經不以為意第二次問湯男他卻回睡覺的時候踢到我我才回踢第次湯更稱是小蟬主動才發生關係等事後小蟬報警提告小蟬在偵查中證述她一度懷疑是否真是自己主動覺得愧疚會傷害到湯男也因為愧疚第次受邀時不知要如何拒絕他只好穿牛仔褲並繫緊皮帶赴約但醒來時褲頭皮帶卻被鬆開案發後近一個月才敢和輔導老師道出實情並報案湯男到案後坦承天晚上都有發生關係但辯稱雙方合意湯的辯護人也辯小蟬服用的藥物中有成分會導致夢遊且案發後日得知兩人發生過關係後仍持續與湯來往借宿同床也頻繁使用通訊軟體對話約看車也會讓湯誤以為對方是自主發生關係但法院認為小蟬前後證述一致案發後和輔導老師對談也是先顧慮自己會造成日後和湯男互動出問題而非指責顯示她不是要陷害人之所以繼續與湯來往也是基於情誼隱忍再加上湯男事後也傳訊息致歉可證兩人非合意性交不採信辯護人說法法院審酌湯男年長小蟬近歲又是同學明知她患憂鬱症須服藥竟藉借宿機會一月內度性侵犯後卸責始終否認態度欠佳難認具有悔意依個乘機性交罪判有期徒刑年月應執行年 __                    桃園湯姓男子邀女同學到家借住趁對方服藥昏睡時發生關係法院依乘機性交罪判年徒刑示意圖   桃園湯姓男子邀女同學到家借住趁對方服藥昏睡時發生關係法院依乘機性交罪判年徒刑示意圖桃園湯姓男子邀女同學到家借住趁對方服藥昏睡時發生關係法院依乘機性交罪判年徒刑示意圖     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> __    大樂透頭獎連槓期今天獎金上看億元民俗專家廖大乙表示肖虎猴豬蛇馬者兔年   運勢 運勢運勢可望一飛沖天穿粉紅紫金等色有助增強旺財磁場生肖未在列也別氣餒用元   紅包 紅包紅包誠心布施也能以小搏大求財拚手氣知名民俗專家廖大乙指出生肖屬虎的人在虎年犯太歲偏沖肖猴豬蛇馬者如今虎年已過運勢不僅將一掃陰霾更可望在兔年一飛沖天想招財也能刮刮樂或彩券試試手氣建議能可朝自己住家東北方的   彩券行 彩券行彩券行購買                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  而在穿著上建議要喜氣明亮像是粉紅紫金色等種顏色尤佳避免黑白色及牛仔破褲露臍中空裝則不宜買彩券前可先到自己習慣或附近廟宇拜拜祈願中彩也會還願答謝帶著愉悅心情去買可增強旺財磁場倘若不在兔年強運生肖之列想在頭獎上看億元的大樂透試手氣也有以小搏大的招財秘方廖大乙表示行善布施自然會為自己累積運勢只是還沒有發大財前要捐大錢做善事較不易因此建議可以小額紅包添香油錢開運廖大乙說以小搏大求財轉運不難只要準備元銅板及直式紅包袋在紅包袋內裝元裝好用膠水將袋口封牢且將紅包折疊次變成橫式橫式紅包可有橫財運帶個小紅包在買彩券前去間廟宇誠心祈求添油香布施雖然添元的香油錢很少但金額不重要因為神明不會因金額多寡而大小眼更重要的是心誠則靈所以在投入元小紅包香油錢前要雙手合十下跪稟告神明誠心懇求能夠中彩金轉運求財並強調中獎會行善濟貧扶弱廖大乙表示春節期間信眾眾多廟方會定時或看狀況整理香油錢時屆時一定會打開信眾們投入的紅包而當自己布施的橫式紅包袋封口對摺被打開時也象徵著在幫自己開運多人幫你開運自然運氣更好自然有助於增強運勢 __                    台彩示意圖圖本報資料照   台彩示意圖圖本報資料照台彩示意圖圖本報資料照                迎兔年春節懶人包一次看   __ _  年生肖太歲當頭狀況多有哪些要注意化解法一次看 __ _  生肖犯太歲轉運靠這次 怎麼安太歲點光明燈大禁忌別犯兩對象不能點 __ _  越冷越好運 生肖過年期間運勢最強財富桃花擋不住 __ _  年新春刮刮樂款一次看 這款每刮必中獎金 __ _  別再講兔年行大運兔年吉祥話盤點 讓你歡喜把錢兔出來 __ _  過年紅包怎麼包金額行情一次看 禁忌犯了小心觸衰     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> __             高雄市 高雄市高雄市左營區發生凶殺案今天上午時許位於華欣路一棟大樓管理員發現家住樓張姓婦人墜落中庭報警警方到場發現張已身亡進屋查看另有一名邱姓女子倒臥地上已明顯死亡目前已拉上封鎖線調查據警方初步了解墜樓死亡者為陸配張女歲與邱女歲同住疑投資失利兩人曾有金錢糾紛因張女邱女都已身亡警方仍訪查兩人親友住戶釐清凶案發生原因                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播    珍惜生命若您或身邊的人有心理困擾可撥打安心專線生命線協談專線張老師專線 __                    高雄市左營區發生凶殺案名女子死亡圖為案發轄區的左營警分局外觀記者石秀華翻攝   高雄市左營區發生凶殺案名女子死亡圖為案發轄區的左營警分局外觀記者石秀華翻攝高雄市左營區發生凶殺案名女子死亡圖為案發轄區的左營警分局外觀記者石秀華翻攝     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> __    中科一家科技廠女員工號召同事集資買   刮刮樂 刮刮樂刮刮樂中了萬元後又加碼再買終於中了百萬元獎高興的說財神爺來過還沒走遠台中市大雅區學府路號的人人發彩券行黃姓女店員上午說日名附近科近廠年約歲女性來買彩刮刮樂並說是趁財神爺來過應該還沒走遠的時候號召同事一起集資萬元買一本萬超級紅包要拚大獎圓夢                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  後來本張的刮刮樂有張中了萬元大夥覺得財神爺應該還在於是加碼買了第本真的幸運刮中萬元一群人開心歡呼果真財神爺來過還沒走遠台灣彩券說萬超級紅包有個頭獎千萬元個百萬元加賓士休旅車個萬元截至日已刮出個千萬元個百萬元加賓士休旅車個萬元                迎兔年春節懶人包一次看   __ _  年生肖太歲當頭狀況多有哪些要注意化解法一次看 __ _  生肖犯太歲轉運靠這次 怎麼安太歲點光明燈大禁忌別犯兩對象不能點 __ _  越冷越好運 生肖過年期間運勢最強財富桃花擋不住 __ _  年新春刮刮樂款一次看 這款每刮必中獎金 __ _  別再講兔年行大運兔年吉祥話盤點 讓你歡喜把錢兔出來 __ _  過年紅包怎麼包金額行情一次看 禁忌犯了小心觸衰     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> __             桃園 桃園桃園市桃園區王姓男子與前女友的現任陳男有糾紛昨深夜相約談判卻事先派同夥埋伏壓制持瓦斯槍威脅陳手握炸藥並引燃當場炸飛他根手指警方獲報後小時內逮包含王嫌等人到案詢後全案依重傷害組織犯罪社維法等送辦桃園警分局埔子派出所昨時分接獲民眾報案大興西路二段麥當勞旁傳出不明爆炸巨響且歲陳姓男子受傷倒地警網立即趕抵現場處理發現他左手食指中指無名指斷裂噴飛趕緊協助人員將他送醫                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  由於涉案人鳥獸散警方調閱監視器後循線追查到主嫌王姓男子歲今時分在經國路某   加油站 加油站加油站前攔查王男到案並在他車上起獲鋼珠槍殺傷力待鑑定及手槍型打火機等物品案發後小時內也將在場其餘名友人全數查緝到案警方調查王姓男子是陳男現任女友的前任雙方相約見面處理感情糾紛陳的女友也在場然而陳男一到現場就被王男及他名友人徒手壓制王男掏出鋼珠槍威嚇要求陳用左手握住一顆不明爆裂物後再以手槍型打火機引爆當場炸飛他手指一夥人見狀隨即散去據了解王男到案後辯稱炸藥是類似水鴛鴦的炮竹且是陳男自己帶來自己點燃但警方根據目擊民眾證詞認定就是王點燃引信再跑到一旁躲避因此自身並未受波及而陳則是擔心寡不敵眾加上低估爆炸威力並未立即鬆手遭遇橫禍警方詢後依重傷害罪嫌社會秩序維護法聚眾   鬥毆 鬥毆鬥毆將王男等人移送桃園地檢署偵辦後續朝組織犯罪向上溯源以嚇阻鬥毆案被害男子經急救目前無生命危險手指全數尋獲有待手術接回 __                    桃園王姓男子昨晚涉聚眾並炸飛一男子手指案發後在加油站被警方循線查獲記者楊湛華翻攝   桃園王姓男子昨晚涉聚眾並炸飛一男子手指案發後在加油站被警方循線查獲記者楊湛華翻攝桃園王姓男子昨晚涉聚眾並炸飛一男子手指案發後在加油站被警方循線查獲記者楊湛華翻攝 __                    桃園王姓男子夥同人壓制來談判的男子威脅他手握炸藥當場炸飛他根手指警方獲報後小時內全數帶回偵辦記者楊湛華翻攝   桃園王姓男子夥同人壓制來談判的男子威脅他手握炸藥當場炸飛他根手指警方獲報後小時內全數帶回偵辦記者楊湛華翻攝桃園王姓男子夥同人壓制來談判的男子威脅他手握炸藥當場炸飛他根手指警方獲報後小時內全數帶回偵辦記者楊湛華翻攝 __                    警方在王男車上查獲鋼珠瓦斯槍是否有殺傷力待送鑑定確認記者楊湛華翻攝   警方在王男車上查獲鋼珠瓦斯槍是否有殺傷力待送鑑定確認記者楊湛華翻攝警方在王男車上查獲鋼珠瓦斯槍是否有殺傷力待送鑑定確認記者楊湛華翻攝 __                    王男以手槍造型打火機引燃炸藥記者楊湛華翻攝   王男以手槍造型打火機引燃炸藥記者楊湛華翻攝王男以手槍造型打火機引燃炸藥記者楊湛華翻攝     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> __    準閣揆   陳建仁 陳建仁陳建仁今天將公布第波   內閣 內閣內閣首長名單如外界預期外交部長   吳釗燮 吳釗燮吳釗燮國防部長   邱國正 邱國正邱國正   陸委會 陸委會陸委會主委   邱太三 邱太三邱太三全數留任此外台北市前議員梁文傑則入閣接任陸委會副主委陳建仁今天預定公布第波內閣首長名單此次以國防外交與兩岸事務機關首長為主盼能穩健銜接並迅速就定位                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  另外據了解原海基會副董事長兼秘書長詹志宏將轉任陸委會副主委原陸委會副主委邱垂正則轉任海基會副董事長兼秘書長另一位陸委會副主委吳美紅將轉任海委會常務副主委其遺缺由前議員梁文傑接任海委會副主委周美伍兼海巡署長則留任     </t>
+    <t>台灣年輕人買不起房！李顯龍坦言原因 鄉民們反駁不了</t>
+  </si>
+  <si>
+    <t>跨境網購木製家具要小心了！最高恐遭罰15萬元</t>
+  </si>
+  <si>
+    <t>涉下藥性侵藥廠女業務 台大婦產科名醫因一句話獲不起訴</t>
+  </si>
+  <si>
+    <t>6台灣人旅日點3碗拉麵「輪流吃」被罵 「日本的歐吉桑」揭關鍵原因</t>
+  </si>
+  <si>
+    <t>秋後算帳？ 知情人士曝：余正煌今轉調內勤「考績甲等」</t>
+  </si>
+  <si>
+    <t>10年好友約摩鐵試精油變下藥性侵 友誼破碎換8年徒刑</t>
+  </si>
+  <si>
+    <t>台灣旅遊住宿消費高惹眾怒 網另點名2因素：有錢寧願出國</t>
+  </si>
+  <si>
+    <t>獨／柯文哲布局立委第一槍？ 春節前悄拜訪民進黨的「他」</t>
+  </si>
+  <si>
+    <t>新內閣名單為何沒「潘孟安、顧立雄」？ 郭正亮曝真正原因</t>
+  </si>
+  <si>
+    <t>妻出門倒垃圾突消失3年！夫報警驚悉真相崩潰 怒告提離婚</t>
+  </si>
+  <si>
+    <t>救救我們！「三隻孤兒小鼠」失去母親又冷又餓 專家卻發現不是普通老鼠</t>
+  </si>
+  <si>
+    <t>再見了！日統國道客運停駛 董座率員工淚送末班車</t>
+  </si>
+  <si>
+    <t>聽到寶寶大哭！母鹿「瞬間激發母愛本能」衝出樹林慌張查看 1動作超有靈性</t>
+  </si>
+  <si>
+    <t>室內口罩令可望解除 專家：該戴就要戴別叫人一定要脫</t>
+  </si>
+  <si>
+    <t>目送好友搭車離去…悲傷大狗狗「尾巴情緒轉折滿點」網心疼：好想給牠秀秀</t>
+  </si>
+  <si>
+    <t>悲劇了！為趕火車遺失台南排隊名產 網群共鳴：這會氣哭欸</t>
+  </si>
+  <si>
+    <t>南韓人全都變年輕了！ 「減齡1到2歲」理由竟是官方下令要求</t>
+  </si>
+  <si>
+    <t>長照費每月需50k以上 網驚：一般家庭怎付的起？</t>
+  </si>
+  <si>
+    <t>謝國樑選舉遭控洗錢1億 他告這名立委求償300萬並刊登判決書</t>
+  </si>
+  <si>
+    <t>2022房市減3萬棟、新竹最慘 房仲：2023恐更糟</t>
+  </si>
+  <si>
+    <t>https://udn.com/news/story/120911/6940092</t>
+  </si>
+  <si>
+    <t>https://udn.com/news/story/7266/6939811</t>
+  </si>
+  <si>
+    <t>https://udn.com/news/story/7321/6939049</t>
+  </si>
+  <si>
+    <t>https://udn.com/news/story/120912/6938667</t>
+  </si>
+  <si>
+    <t>https://udn.com/news/story/6656/6940389</t>
+  </si>
+  <si>
+    <t>https://udn.com/news/story/7317/6939433</t>
+  </si>
+  <si>
+    <t>https://udn.com/news/story/120911/6939617</t>
+  </si>
+  <si>
+    <t>https://udn.com/news/story/6656/6939631</t>
+  </si>
+  <si>
+    <t>https://udn.com/news/story/123286/6938720</t>
+  </si>
+  <si>
+    <t>https://udn.com/news/story/7321/6939914</t>
+  </si>
+  <si>
+    <t>https://udn.com/news/story/7470/6938622</t>
+  </si>
+  <si>
+    <t>https://udn.com/news/story/7326/6939137</t>
+  </si>
+  <si>
+    <t>https://udn.com/news/story/7470/6938725</t>
+  </si>
+  <si>
+    <t>https://udn.com/news/story/120940/6939330</t>
+  </si>
+  <si>
+    <t>https://udn.com/news/story/7470/6938706</t>
+  </si>
+  <si>
+    <t>https://udn.com/news/story/7266/6938566</t>
+  </si>
+  <si>
+    <t>https://udn.com/news/story/6812/6939839</t>
+  </si>
+  <si>
+    <t>https://udn.com/news/story/120912/6939111</t>
+  </si>
+  <si>
+    <t>https://udn.com/news/story/7321/6939587</t>
+  </si>
+  <si>
+    <t>https://udn.com/news/story/7241/6938861</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> __    近日網路流傳一段年前影片為   新加坡 新加坡新加坡總理   李顯龍 李顯龍李顯龍分析亞洲四小龍的星台港不同之處當時直言台灣的經濟多年來失去了明確的發展方向更描述台灣年輕人若被問何時   買房 買房買房還可能以為是遭打趣或調侃有一名    網友起頭問哇台灣人完全被嗆該怎麼反駁大家反應都是無法反駁  _鄉民轉發該李顯龍的影片片中提及台灣部分過去十幾年來經濟的確有一些問題因為經濟發展比較慢所以年輕人畢業找工作不成問題有很多大學大家都是大學生                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  話鋒一轉李顯龍認為台灣大學生不滿意做的工作也很多例如當司機或是做小生意甚至有些跑到新加坡拿工作證打拚但為何呢因為他們指台灣的經濟過去多年來可能失去了一個明確的發展的方向所以他們年輕人是蠻有理由擔心的李顯龍舉例假如你問台灣年輕人你什麼時候打算買房子對方可能以為你是逗笑他戲弄他因為台灣年輕人無法想像自己可以買房子除非是大富豪反觀新加坡人他笑說大家買完房子才結婚吧哈哈哈哈所以完全不相同網友們幾乎一面倒認同無法反駁金融海嘯都多久了還在笑死新加坡萬台幣可買房房大概萬台幣不過也  _有人討論新加坡房價低是因為囤房稅敢囤就課到你脫褲子而且重到轉嫁不出去台灣空房率世界第一空屋百萬棟台灣不是沒房而是囤房炒作一切都是囤房造成的供需問題 _         __年官方完整影片 _       _      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> __    跨境網購木製家具的買家要注意了財政部關務署基隆關日在官網公告跨境網路購物風行民眾透過電子商務平台訂購家居擺設種子植栽等植物類商品並以海運快遞方式進口情形越見頻繁但此類貨物涉及檢疫等輸入規定違反者將受行政裁罰最高新台幣萬元網路交易平台   淘寶 淘寶淘寶表示對平台上所有不符規定禁限售的商品下單頁面都會出現相關的警語且無法下單在消費者下單時也會出現針對檢疫規範的宣導內容均有導引至台灣主管機關的相關規範頁面                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  淘寶指出基本上多數賣家的家具均是經過煙燻上漆等處理極少出現   海關 海關海關說明的未經油漆或防腐處理的木材基隆關說明為防治植物疫病蟲害的發生並制止蔓延依據植物防疫檢疫法第條第項規定輸入植物植物產品應符合輸入規定且須申請檢疫合格如未申請檢疫而經海關查獲者將移請行政院農業委員會動植物防疫檢疫局裁處該局除依同法第條第項第款規定裁處新台幣萬元以上萬元以下罰鍰外進口貨物也將遭沒入許多民眾可能誤以為不要買植物盆栽或種籽就不會違規實際上並非如此基隆關表示部分網購平台未提供詳細商品說明消費者易誤認商品非屬應施檢疫物品而購買進口例如未經油漆或防腐處理的原木家具含木塊的配件裝飾木箱未經乾燥的花草掛飾等均屬應實施輸入植物檢疫品目海關建議消費者購買前最好向廠商確認原料及處理方式是否符合免申請檢疫規定並請留意是否屬不准輸入的大陸物品以免因違反植物防疫檢疫法及海關緝私條例等相關規定而遭裁罰基隆關表示近期已多次查獲這類違章行為因而籲請民眾不可不慎以免誤觸法網     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> __    一位台大醫院婦產科名醫去年遭藥廠女業務指控涉嫌利用聚餐時下藥再將女方帶至   汽車旅館 汽車旅館汽車旅館性侵台北地檢署調查後除未查出女方體內有藥物殘留反應且監視器畫面及計程車司機證詞都顯示她當時神智清楚能自行走路事後返家還傳給名醫說感謝老爹因此認定名醫罪證不足不起訴據當時女業務指控去年月日她與該名醫前往北市松江路某餐廳用餐席間有飲酒後來出現昏沉等疑似遭下藥的症狀待恢復意識時赫然發現自己竟躺在旅館床上正在和該名醫發生性行為但當下頭腦和身體仍不聽使喚只能任由對方   性侵 性侵性侵                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  事發後該名醫疑似為此被調離主管職但他嚴詞否認下藥性侵女業務甚至為自保聲請緊急保全證據檢警調閱當天雙方自用餐餐廳至汽車旅館沿路監視畫面發現女方可自行走路不需他人攙扶腳步也未出現如下藥後步伐無力的情形檢警同時傳喚當天載兩人前去汽車旅館的計程車司機司機運將證稱當天女業務在車上時神智清醒還可與男方聊天甚至主動要求司機行駛指定路線至汽車旅館另外檢警經勘查兩人手機通聯記錄發現案發日當晚女方返家後曾傳報平安並向男方表示感謝老爹因此認定名醫涉案罪證不足     提醒您禁止酒駕 飲酒過量有礙健康   __                    台大婦產科名醫涉嫌下藥性侵藥廠女業務獲北檢不起訴圖聯合報系資料照片   台大婦產科名醫涉嫌下藥性侵藥廠女業務獲北檢不起訴圖聯合報系資料照片台大婦產科名醫涉嫌下藥性侵藥廠女業務獲北檢不起訴圖聯合報系資料照片     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> __    近日有一群台灣旅客至日本福岡拉麵店用餐六個大人加小孩只點了三碗拉麵輪流吃被店員制止事後至評論給一星負評還嗆店家是不通人情的死頭腦在台長住年的旅台作家日本人的歐吉桑  _於臉書表示他是福岡人了解當地拉麵店的生態所以想分享給台灣人關於福岡拉麵的五件事他說台灣的拉麵店定位是服務業但在福岡是職人的世界                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  在台灣民眾會期待拉麵店不僅食物要美味更要有好的服務品質但在福岡當地日本人不會期待店家服務只要拉麵好吃即可福岡是有名的拉麵產地老闆都很有個性有一些經營超過十年以上不倒的店家規矩也頗嚴格日本人的歐吉桑也說如果客人態度不好或店家不喜歡你這個客人老闆是可以直接把人趕出去不接這門生意的而且不只在福岡就算在日本其他地方多人共享一碗拉麵真的不太好拉麵店老闆普遍都討厭這種行為加上該組台灣人去吃的博多大砲拉麵博多大砲ラーメン店面很小位置也僅九個老闆會有那種反應很正常他表示雖然有些店的老闆真的很兇但在上留負評其實亦無濟於事因為拉麵店老闆根本不會下決心改變他的態度反而以後會更不想接待外國客人 __日本人的歐吉桑分享關於福岡拉麵的五件事  __一不要期待老闆的服務二必須接受老闆的個性三就算不喜歡店家態度也不要留負評四可以期待福岡的拉麵因為真的很好吃五吃完不要去夜店因為福岡拉麵味道重會被女生討厭底下也有人留言說以這組台灣人的邏輯店家體諒都是理所當然真的是奧客入境隨俗人家怎麼規定就怎麼做不要當自己家撒野一樣的事情在台灣也不是常態只是台灣的店家不會去管也不知道怎麼阻止希望日本朋友不要以偏概全還有人發現該店家在上的評論又有新進展鬧那麼大還不忘更新該一星負評又寫說你們沒有親身被店家無禮的言語和態度對待不懂為何要卑微的道歉這心態不是日本人就一定都對好嗎當個有尊嚴明是非的台灣人     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> __    民進黨   九合一選舉 九合一選舉九合一選舉敗選有知情人士爆料被視為造成民進黨九合一選舉敗選原因之一的調查局新竹市調查站調查官   余正煌 余正煌余正煌正巧也在今天起被轉至內勤考績被打乙事實上就是秋後算帳不過調查局長王俊力昨晚表示余正煌被調內勤但考績是甲等去年縣市長選舉前新竹市長林智堅的台大國發所碩士論文遭踢爆涉嫌抄襲同樣就讀台大國發所學長余正煌的碩論據悉事情爆發後確實有官員希望余吞下為林解圍但余不接受最後余還提告林侵害著作權而台大也認定林的   論文抄襲 論文抄襲論文抄襲撤銷其碩士學位導致林退出桃園市長選舉                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  余正煌自訴林智堅台大國發所碩士論文抄襲違反著作權法台北地方法院月日傳林智堅出庭余正煌則在開庭前的深夜於臉書發文黨聯合公司要攻我嗎要戰就來當時傳出余的工作考績被打乙等還將從外勤轉調內勤冷凍調查人員透露可能是有長官以為已將余正煌壓制住說不定還向上面邀功不料余卻跑去提告這下面子掛不住就用考績與調動等方式處理 __                    余正煌自訴林智堅台大國發所碩士論文抄襲違反著作權法台北地方法院月日傳林智堅出庭余正煌則在開庭前深夜於臉書發文黨聯合公司要攻我嗎要戰就來圖報系資料照   余正煌自訴林智堅台大國發所碩士論文抄襲違反著作權法台北地方法院月日傳林智堅出庭余正煌則在開庭前深夜於臉書發文黨聯合公司要攻我嗎要戰就來圖報系資料照余正煌自訴林智堅台大國發所碩士論文抄襲違反著作權法台北地方法院月日傳林智堅出庭余正煌則在開庭前深夜於臉書發文黨聯合公司要攻我嗎要戰就來圖報系資料照     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> __    高雄歲陳姓男子和女性友人女認識超過年年月深夜陳男載女到汽車旅館測試精油卻趁女如廁時在飲料下藥女被迷暈後遭陳男   性侵 性侵性侵得逞隔天女昏睡整日上班時好友察覺異狀醫院採尿驗出體內有安眠鎮靜劑成分高雄地院審理後依強制性交罪判陳男年徒刑還要賠償女方萬元判決指出陳男曾因   毒品 毒品毒品案被判刑年月確定年月假釋出監年月日才服刑期滿同年月間陳男頻頻邀約認識多年的女出門稱有一款精油要給女試試                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  陳男邀請女時還頻頻詢問生理期日期妳的是天還是天通常都是幾號左右來嗎起初女還感到疑惑陳男為了釋疑還貼心回訊因為好朋友來小酌對女生不好如果妳我就不操心雙方約好時間後同年月日深夜時許陳男開車載著女先到超商購買酒水後再到汽車旅館開房原以為是要測試精油陳男卻趁女如廁時在她的酒杯中摻入有成分的安眠鎮靜藥物女喝下後隨即昏迷被陳男性侵得逞隔天醒來後女衣著完整卻頭暈想吐陳故作無事載她回家後來女日上班時被同事察覺動作有異詢問前幾天經過後直覺女恐遭陳男下藥隨即要女到醫院採驗經採檢尿液後果然發現有安眠鎮靜藥成分氣得女對有年情誼的陳男提告檢警偵辦時發現女私密處有新撕裂傷且下體內衣也被採檢到陳男的綜合相關事證依強制性交罪將陳男起訴高雄地院審理時陳男否認下藥稱兩人是合意性交他的律師則稱女驗尿時距案發已超過小時藥物不可能在小時後還能被驗出且女友精神科就診紀錄診所也會開藥物給女這件案子是陳男事後沒有像之前頻繁聯絡女感到失落才會提告但法官認為女接受陳男邀約時還曾詢問陳真的不找其他人可見她與陳男見面應只是單純喝酒敘舊若她要構陷陳男大可在離開摩鐵後隨即跑到醫院採尿何必隔了天經同事提醒才跑到醫院檢查另外女在測謊時面對有無使用毒品等詢問女回答沒有時並無不實反應且一般人到診所領藥不知道藥物成分非常正常遑論服用多久採尿才會呈陽性反應至於成分藥物服用多久仍能檢出並無固定標準經過小時仍有機會驗出綜合相關事證不採信陳男及律師說法依加重強制性交罪重判年女另提刑事附帶民事訴訟向陳男求償萬元法官審酌陳男對女造成傷害判他要賠女萬元 __                    陳姓男子性侵認識年的女好友被法院判刑年示意圖本報資料照片   陳姓男子性侵認識年的女好友被法院判刑年示意圖本報資料照片陳姓男子性侵認識年的女好友被法院判刑年示意圖本報資料照片     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> __    史上最長年假剛結束在這天裡許多人除了返鄉過年外也會選擇出國或者待在台灣旅遊有位網友就好奇在台灣旅遊最大的問題是什麼他在比較出國和在台灣旅遊的優缺點想知道為何大家對台灣旅遊興致缺缺  _貼文引起眾人熱議鄉民也歸納出消費高交通亂景點無特色是大原因原說過年天連假因為工作關係只能放前面幾天也沒辦法出國玩於是想找人在台灣逛逛但卻發現朋友們都沒什麼興趣這讓他不免好奇想問台灣旅遊最大的問題是什麼                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  他表示台灣有山有海風景宜人生活機能也很方便超商超市到處都有購物非常便利再加上吃的東西很多樣語言通用治安又好也不用辦護照反觀出國語言不通飲食不習慣購物也不方便但一堆人還是拚命想飛出去這讓原很想知道究竟台灣旅遊業出了什麼問題呢有卦嗎貼文一出不少人點名交通亂景點沒特色景點又髒又舊又無聊又貴就玩的東西大同小異啊不然就是了無新意一堆山寨村觀光工廠花樣又不多有錢也寧願跑國外可以玩到比台灣更好沒有真正的文化景點無聊房間又貴又會塞車地小人多塞車就塞死了當然出國離開台北市區大眾運輸不方便交通亂容易出車禍公廁少又髒路小又擠停車不易沒有特色居多有特色的又跟不上潮流沒特色啊從南到北都差不多當中最多人抱怨的就是   住宿 住宿住宿消費特別貴住宿爆幹貴品質沒有跟上價格台灣人不是捨不得花錢是你品質太差住宿是最大毒瘤賺得太噁心住宿超貴景點食物同質性高貴沒深度相似特產紀念品住宿費用貴到不合理沒有相對應的品質髒又貴我是說專賣給盤子的人問題就是房價啊不然他拿去出租比較賺為什麼還要花額外人力物力成本經營住宿業     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> __    距總統大選僅剩一年   民眾黨 民眾黨民眾黨主席   柯文哲 柯文哲柯文哲動作頻頻據悉柯春節前悄悄拜訪   民進黨 民進黨民進黨新北市議員李余典似乎希望李家代表民眾黨參戰立委李余典對此三緘其口女兒   李旻蔚 李旻蔚李旻蔚也不願證實地方人士認為柯文哲要布局總統選戰亟需有人代表民眾黨參選立委為他拉抬聲勢但民眾黨基本盤仍薄弱難以說服李家離開民進黨柯文哲參選總統態度明確卸任台北市長後便籌組基金會競選辦公室等月日宣布提早從台大醫院退休並已在規畫訪美不過民眾黨區域立委人選卻遲遲沒下文民眾黨秘書長周台竹日前曾說還在尋找立委人選當務之急是廣尋理念相同的人才投入選舉                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  據悉柯文哲以拜年名義春節前悄悄拜會李余典李旻蔚雖然口頭上稱是請益如何打組織戰但試探李家意味濃厚李余典對此三緘其口不願多談李旻蔚雖沒證實與柯會面但說會繼續耕耘基層未來不排斥任何可能性不過還需要把碩士論文先寫出才不會被放大檢視民眾黨歷經總統大選與地方選舉現有位縣市長席不分區立委及席縣市議員選舉成績不如預期地方人士說柯文哲卸任台北市長以後影響力大不如前亟需有人參選區域立委為自己參選總統拉抬聲勢因此過年期間全台跑透透名義上是拜年實則已經開始動作地方人士說區域立委選制下通常是兩黨一對一廝殺三腳督對民眾黨反而不利最容易遭邊緣化加上李旻蔚年代表民眾黨參選立委就讓父親李余典遭民進黨停權年去年也吊車尾選上議員如今有了前車之鑑柯文哲想說服藍綠兩黨的地方民代轉加入民眾黨參選立委恐怕是難上加難     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> __    蔡政府   內閣 內閣內閣改組前副總統陳建仁預計在今日正式接掌閣揆副閣揆則由前桃園市長   鄭文燦 鄭文燦鄭文燦擔任不過新內閣名單卻沒有呼聲高的前屏東縣長   潘孟安 潘孟安潘孟安和國安會祕書長   顧立雄 顧立雄顧立雄引發外界討論  _行政院日召開記者會公布完整內閣政務正副首長名單其中卻不見政績頗佳的前屏東縣長潘孟安和國安會祕書長顧立雄前立委   郭正亮 郭正亮郭正亮在網路政論節目 _ _大新聞大爆卦分析因為任期只有年要找專家學者是不太可能可是不分區立委有很多人例如找管碧玲當海委會主委她就接了因為任期只有年民進黨不分區立委大部分是不能連任的他認為很多人會願意出任至於為何不用就令人感到有些匪夷所思畢竟有些人的爭議程度遠低於留任的衛福部長薛瑞元農委會主委陳吉仲他直言新內閣的設定是工具人的角色剩下年什麼怪招都是選舉為主                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  郭正亮指出現在民進黨真正的大麻煩是未來要如何跟   賴清德 賴清德賴清德協作如果到最後陳建仁的民調起不來賴清德還是要選大選而能夠跟賴清德協作的只有準副閣揆鄭文燦鄭文燦是未來內閣真正的核心他認為未來要選舉時賴清德若想做某些事例如掃黑金要與準內政部長林右昌溝通到時候雙方如何協作能否互相配合最後可能還是需要鄭文燦去協調     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> __     __                    垃圾回收車示意圖聯合報系資料照片記者林伯東攝影   垃圾回收車示意圖聯合報系資料照片記者林伯東攝影垃圾回收車示意圖聯合報系資料照片記者林伯東攝影妻子突然失蹤原來有古怪新北市一名男子與妻子結婚年後某天妻子出門倒垃圾後便突然消失人間蒸發擔心下報警求助沒想到竟發現妻子已偷偷離開不在台灣男子得悉真相崩潰向法院訴請   離婚 離婚離婚獲准綜合台灣媒體報導該男子年與大陸女子結婚但相處並不融洽妻子懷疑男子婚後與前女友藕斷絲連曾為此爭吵直至婚後年年某天妻子拿着黑色垃圾袋出門家人以為她要倒垃圾詎料之後便消失男子打電話也沒有接聽於是報警求助                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  最終男子透過警方成功致電妻子卻發現原來妻子竟已返回大陸不在台灣讓男子崩潰傻眼由於人分居已達年男子憤而向法院訴請離婚法院法官引述移民署資料指妻子於年月離境後便沒有入境台灣紀錄證明妻子離開台灣後人已分隔兩地年且妻子沒有到場抗辯故認定男子主張符合事實法官表示人分開年並非短時間而妻子離家出走後沒有與男子聯絡直到法院辯論終結都沒有改變雙方關係降到冰點難以繼續維持   婚姻 婚姻婚姻因此判准人離婚全案仍可上訴延伸閱讀 ___ _歲老翁逼妻一周要次 妻淪洩慾工具受不了下場慘 ___ _末期肝癌男為加快換肝要求與捐贈者結婚 妻悉真相怒告文章授權轉載自  _香港     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> __    誰來幫幫我們三兄弟據國外媒體 的報導不久前三隻無家可歸的小老鼠失去了父母親的照顧留下牠們自生自滅牠們默默地等待希望有人能伸出援手將牠們從水深火熱中拯救出來小老鼠們的心願彷彿被聽見一位好心人在乾草裡發現了牠們並馬上聯繫了矽谷野生動物中心    動物中心經理阿什利金尼 告訴 表示小老鼠被發現時周遭沒有其母親的踪影牠們表現得昏昏欲睡身體發冷之外肚子還在咕嚕咕嚕地叫在進入動物中心吃了幾頓餐稍作休息後並無大礙 __                    圖擷自    圖擷自 圖擷自   _ 阿什利將牠們安置在一個小型的玻璃容器裡裡頭充滿著各式各樣的天然美食由於牠們還年輕弱小因此食物方面都是阿什利特地為牠們準備精心調配的在長大一點就能開始吃固體食物                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播   __                    圖擷自    圖擷自 圖擷自   _ 名為西方巢鼠  的牠們原產於美國西部地區牠們以種子穀物或者昆蟲為食牠們晝夜都活躍體積嬌小使牠們能輕鬆在草叢裡飛快穿梭目前三兄弟正在阿什利的照料下茁壯成長在等到牠們能完全自給自足後就會把牠們野放回當初發現牠們的所在地有興趣了解更多還能前往矽谷野生動物中心的  _官方網站哦延伸閱讀  _誰說貓咪很怕水愛乾淨的喵皇瘋狂拍水暗示趕快給我洗香香  _長頸鹿慘遭汽車輪胎套頸　脫不下來驚慌表示芭比啦  _喵星人戀上骷髏貓對人家又聞又舔令馬麻傻眼表示真的墜入愛河了  _郊狼闖入校園借廁所方便一下嚇壞學生　郊狼無奈至於嗎     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> __       日統客運 日統客運日統客運本月初宣布停駛條   國道客運 國道客運國道客運路線行駛長達年   雲林 雲林雲林往返台北的班車今日畫下句點董事長林義風今午率員工在斗六市日統客運大樓送別點分的末班車並向旅客感謝道別他淚眼婆娑不捨之情溢於言表也有資深員工難忍淚水直呼捨不得更有公車迷專程南下拍照搭車大家一起送別這份時代的記憶日統目前僅剩縣內路線持續營運林義風體會雲林偏鄉民眾往返都市交通不便年白手起家經營日統客運也購置歐洲進口大客車保障乘客乘車安全但近年面臨大環境改變民眾旅運模式不復以往日統客運最終決定停駛國道客運路線引來不少長期仰賴搭乘的長者遊子惋惜                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  日統客運末班車今天中午點分從斗六發車開往台北該班車座位全數完售有些人準備北上探親更有來自台北的公車迷專程相約南下紀錄這紀念性的一刻台北林先生說自己過去常搭日統客運南下拍照今天早上點多從台北搭車南下現在要搭日統客運末班車回台北同行的友人廖先生則是一口氣買條路線的票券留作紀念林義風受訪時不禁紅了眼眶他說今天的心情很不好環境造成今日結果他對旅客很不好意思但也非常感謝雲林及北部鄉親長期支持與照顧除了縣內條公車路線持續運作他也透露未來將朝休閒運動發展有新進度會再公開今日駕駛末班車的吳姓駕駛在日統客運服務年為了生計接下來會再找新的工作他也分享其實許多年老長輩都是常客搭車時也時常向他表達不捨之情但即便聽了難過卻也束手無策賴姓站務員說很希望公司繼續營運但大勢已定也沒有辦法 __                    台北廖先生一口氣購買張日統國道客運票券做紀念記者陳苡葳攝影   台北廖先生一口氣購買張日統國道客運票券做紀念記者陳苡葳攝影台北廖先生一口氣購買張日統國道客運票券做紀念記者陳苡葳攝影 __                    日統客運董事長林義風前今午率員工在斗六市日統客運大樓淚送點分的末班車並向旅客感謝道別記者陳苡葳攝影   日統客運董事長林義風前今午率員工在斗六市日統客運大樓淚送點分的末班車並向旅客感謝道別記者陳苡葳攝影日統客運董事長林義風前今午率員工在斗六市日統客運大樓淚送點分的末班車並向旅客感謝道別記者陳苡葳攝影 __                    台北林先生是公車迷今早他搭乘點多的車南下雲林斗六並搭日統客運的末班車回台北圓滿這一趟紀念旅程記者陳苡葳攝影   台北林先生是公車迷今早他搭乘點多的車南下雲林斗六並搭日統客運的末班車回台北圓滿這一趟紀念旅程記者陳苡葳攝影台北林先生是公車迷今早他搭乘點多的車南下雲林斗六並搭日統客運的末班車回台北圓滿這一趟紀念旅程記者陳苡葳攝影     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> __    母愛不分物種一名女子帶著自家寶寶到後院涼亭乘涼結果寶寶因為不明原因突然大聲啼哭此時遠方的叢林裡竟然跳出一隻母鹿緊張地東張西望就像是在找尋哭聲來源母愛爆棚的模樣讓不少網友看呆美國一名女子巴頓 剛晉升為新手媽媽某天她帶著孩子在自家後院的涼亭中休息看風景不知為何嬰兒突然大聲啼哭起來巴頓連忙將孩子摟進懷裡安撫結果沒想到在遠方的叢林中突然跳出一隻母鹿牠好奇的東張西望就像是在找尋哭聲的來源                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  過沒多久母鹿發現哭聲竟然是從人類嬰孩身上傳來的牠立刻走近巴頓身邊停在涼亭下方盯著他們看一臉相當擔憂又好奇的樣子巴頓表示當時看到這隻鹿突然跳出來其實被嚇到了只好趕快對母鹿喊這是我的孩子不是你的隨後才發現原來牠是一隻母鹿應該是被孩子的哭聲吸引到才靠過來看了許久後來寶寶不哭了母鹿也慢慢轉身離去巴頓將這段難得的奇遇影片上傳到上吸引百萬網友觀看不少網友都被母鹿的行為感動留言表示母愛不分物種母鹿應該是被寶寶的哭聲激發出母性本能所以才急著過來看看發生什麼事情好溫馨的畫面果然大家都說媽媽很偉大說不定是因為小嬰兒哭聲太像小鹿的叫聲所以吸引到了母鹿               _                     _                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> __    本土案例今天一口氣衝破三萬例與上周相比增幅達到中央流行疫情指揮中心有意再解除室內口罩令林口長庚醫院副院長邱政洵表示室內口罩令不該統統解除高風險場域還是要戴如長照醫療機構或是人口密集處他認為口罩令解除不是叫國人一定要脫掉該戴的時刻還是要戴目前疫情的情況與過年前類似都還是在疫情期間國人仍不得輕忽邱政洵表示年後疫情爆發是可以被預期的與國人返鄉與家人密集接觸有關他認為並不是國人出國旅遊人數變多而增加國人平時的口罩習慣還是做得很好鬆懈的時刻應該就是與親友相處的時候沒有多加注意而增加染疫的機會                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  邱政洵表示現階段仍在疫情中不理解室內口罩令為什麼要討論在最近解除如果真的解除室內口罩令還是建議需要有配套措施高風險場域仍建議一定要配戴也呼籲國人可以養成習慣人口太過密集的場域如下班時刻的捷運車廂內口罩還是戴起來對自身比較好根據一月中旬於新英格蘭期刊發布的研究比較第二追加劑即第四劑如果是施打單價的新冠疫苗與施打次世代疫苗的綜合效價研究顯示第四劑施打次世代疫苗者效價反應遠高於施打單價新冠疫苗者好次世代疫苗對現行的流行變異株包含等都具有保護作用邱政洵表示施打疫苗還是在疫情當中能減少重症死亡風險最好的方式台灣現在施打第四劑的比例明顯偏低根據指揮中心統計截至月日為止完成施打第二次追加劑者約多萬人建議施打第三劑已經超過三個月又沒有確診者建議盡速施打第四劑的次世代疫苗如果打完第三劑後有確診者建議六個月後可以施打第四劑次世代疫苗邱政洵提醒疫情到現在還是沒有結束雖然這一波疫情可能會很快到達高峰後又下降但本土病例數始終沒有掉到一萬例以下打疫苗戴口罩都是最好的防疫措施國人還是不能放鬆 __                    林口長庚醫院副院長邱政洵呼籲這一波疫情國人仍不能放鬆圖本報資料照   林口長庚醫院副院長邱政洵呼籲這一波疫情國人仍不能放鬆圖本報資料照林口長庚醫院副院長邱政洵呼籲這一波疫情國人仍不能放鬆圖本報資料照     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> __    狗狗非常重感情一隻大狗狗在窗邊看著同伴搭車離開原本搖動的尾巴漸漸垂下象徵牠低落的心情讓人看了非常不捨網友在分享一段影片一隻大黑狗待在窗邊目送牠的好友狗狗離開牠看著同伴跳上汽車後座尾巴輕輕搖動當看到對方主人坐上駕駛座搖動的尾巴停了下來接著漸漸垂下最後整個靜止隨著車子開走狗狗仍戀戀不捨的模樣                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播             ________   網友表示充滿情緒的小尾巴看了讓人好心疼可以感覺牠的打擊有多大小時候玩伴回家我當時的心情也是一樣主人快點去抱抱牠狗狗的尾巴可以彰顯牠的情緒輕鬆擺動的時候表達開心豎直不動代表正在憤怒尾巴下垂代表狗狗感到哀傷通常伴隨耳朵下垂並發出類似嗚嗚的悲鳴聲     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> __    出門旅遊買   伴手禮 伴手禮伴手禮也是重點項目之一尤其是排隊名產更是不可或缺的一項紀念品日前有一名部落客發文分享說見到有人為趕火車而遺失辛苦排隊的   台南 台南台南名產引發網友熱議有一名部落客在他的粉絲專頁阿青的玩樂日記上  _分享一則見聞部落客阿青表示日前在台南   火車站 火車站火車站看到有人衝上火車然後留下了過年要辛苦排隊的台南   名東 名東名東傳統現烤蛋糕居然還是最好吃的   南瓜乳酪 南瓜乳酪南瓜乳酪口味阿青替失主感到可惜因為這家名東的南瓜乳酪蛋糕真的很好吃                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  這篇文章迅速引起熱烈討論許多人都深有同感悲劇了這會氣哭欸南瓜乳酪真的會哭死南瓜還是最軟好吃乾濕度剛好真的好吃耶可惜了身為臺南人也覺得南瓜口味超級好吃名東耶好懷念哦南瓜口味根本是神也有不少網友表示沒關係的啦這樣下次還有機會來台南可以幫忙廣播吧是誰的要是在車站招領處我可以去幫忙取回寄給你殘念可惜不能幫他消滅要不幫他解決了吧你可以幫忙帶回家吃掉為了不浪費食物就默默帶回家吃了吧很多人留言是不是空的蛋糕可能會壞掉阿青表示也有好奇靠近去查看是真的有完整的南瓜乳酪蛋糕啦 __                    部落客阿青認真查看後表示真的有完整的南瓜乳酪蛋糕啦 圖擷自臉書   部落客阿青認真查看後表示真的有完整的南瓜乳酪蛋糕啦 圖擷自臉書部落客阿青認真查看後表示真的有完整的南瓜乳酪蛋糕啦 圖擷自   _臉書另外也有不少網友覺得可惜紛紛表示天啊心裡應該很難過吧是名東蛋糕啊是我一定中途跳車取回應該要排好久好久而且還是剛做好的想到會飲恨吧可以想像當火車關上門緩慢啟動那人默默的喊了啊淦他可能在車廂上望著椅子上忘記拿的蛋糕飲恨最後也有網友分享自身類似經驗提出解決辦法說道還好啦應該是拿得回來只是怕過期送去車站失主要是有請到站的車站幫忙協尋下一趟車就會到了曾經把台東地瓜酥留在火車上也是外套掉了捨不得想説試試看才知道有這個方法連假會加開車次頂多等個分至小時就會到了        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> __    台灣計算年齡的方式有分實歲和虛歲但   南韓 南韓南韓的年齡算法卻比台灣複雜更多一個人同時間最多可能會有種年齡不過知名部落客台灣妞韓國媳近日就分享一項特別的消息從今年月開始南韓人都會年輕到歲原因更是讓全網驚訝不已  _台灣妞韓國媳在粉專發文分享南韓年齡算法像是台灣的虛歲制一出生就算歲又因應三月開學季所以一二月出生的人在入學時要再多加歲例如我是早的代表我是年一二月出生的跟他一起上學的是年三月到十二月的孩子如今南韓終於在年決定與全球同步統一計算年齡的方式台灣妞韓國媳也因此笑虧我歲   生日 生日生日要過兩次而且沒有歲生日                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  簡言之以年月出生的人為例若以南韓的虛歲來算他出生時歲新年又加歲所以現在是歲以年歲計算用今年度減掉出生年份不看他的出生日期就會是歲以滿歲計算則是用今年度減掉出生年份但要考量出生日期所以是歲南韓年齡計算方式混用虛歲年歲和滿歲產生各種社會亂象行政浪費為此南韓總統   尹錫悅 尹錫悅尹錫悅當時在競選時將推動統一年齡計算方式作為政見尹錫悅當選後去年底通過一系列法案廢止幾種年齡計算舊制並於年月開始統一採用國際通用算法台灣民眾飛到南韓旅遊若是被問到年齡可能要入境隨俗地加上到歲使用南韓網站 _ _滿歲計算機만나이 계산기一鍵輸入即可換算你的韓式年齡喔      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> __    現在台灣社會趨向高齡化許多人會趁年輕時規劃老年的退休金保險等等日前一名女網友表示她看到爺爺有   長照 長照長照需求發現一個月請看護得花萬至萬因此拋問萬一我老了怎麼辦一般家庭要如何負擔長照費用一名網友在  _發文表示她爺爺攝護腺癌末期第三次復發化療後癌細胞轉移到骨頭讓原本能夠行走的爺爺變得行動不便現在爺爺的大小便全由奶奶包辦已經過了個月了爺爺坦言自己狀態不好說話都會大小聲奶奶也透露身心快要崩潰了讓家人們開始找機構來照顧爺爺                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  不過原表示一個月最便宜要花費萬元其他雜支費用加上後最少每個月要花萬至萬元就算想請看護也不一定有主治醫師直接不開醫師證明讓她直呼好可怕我現在才歲已經在想未來換我老了要怎麼辦是不是要先買長照險壓力有夠大到底一般家庭或獨生子女該如何負擔每月萬的長照費對此網友建議看護一個月不用萬請   外籍看護 外籍看護外籍看護每個月萬多拿爺爺失能證明就可申請至少爺爺有退休金和房子就還好妳們找看護送機構大家都舒服啦請看護還是會看到妳爺爺在那邊吵架申請外勞跟機構費用補助需要的文件是不一樣的妳們可以兩個都申請機構一個月五萬可以吧還有補助可以申請加上妳爺爺的退休金萬元扣掉基本不用額外花費     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> __    基隆市長   謝國樑 謝國樑謝國樑選舉時被立法委員   林楚茵 林楚茵林楚茵指控涉嫌利用金星國際公司   洗錢 洗錢洗錢萬美元約新台幣億元挨酸謝公子真機靈隱匿財產避申報公司出事媽媽扛謝國樑提民事訴訟要求林楚茵賠償萬元並刪除臉書文章於三大報刊登判決書全文台北地方法院今首度開庭謝國樑委任   律師 律師律師指出林楚茵去年月日分別於記者會臉書粉絲專頁指控謝國樑涉嫌洗錢皆為不實陳述且未盡查證義務謝國樑也已澄清並無不法情事林楚茵仍持續不實指控侵害名譽權                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  林楚茵委任律師則認為言論內容屬可受公評之事且對方要求刊登判決全文違反憲法法庭判決意旨判決書皆會在網上公開沒有拒絕民眾了解內容要求林楚茵刊登判決內文沒有理由謝律師反駁憲法法庭判決僅限不能強制道歉但可用刊登判決作為替代方案法官問及雙方是否有調解的可能謝國樑律師表示得再向當事人確認林楚茵律師則說需要看對方條件為何再做決定法官諭知月日下午點半再開庭民進黨團去年月日曾開記者會指出當時代表國民黨參選基隆市長的謝國樑涉嫌洗錢萬美元因德信證券前董事長林冠百涉嫌掏空新台幣上億元被起訴檢方發現其中有一筆錢流入謝國樑的金星國際才衍伸出謝國樑案外案林楚茵當時指控謝國樑涉嫌收受犯罪所得公司法鉅額逃漏稅洗錢防制法使公務人員登載不實等五大罪狀 __                    立委林楚茵去年召開踢爆謝國樑涉洗錢 從天而降的萬美金記者會質疑謝國樑恐涉公司法巨額逃漏稅洗錢防制法使公務人員登載不實等五大罪狀圖聯合報系資料照片   立委林楚茵去年召開踢爆謝國樑涉洗錢 從天而降的萬美金記者會質疑謝國樑恐涉公司法巨額逃漏稅洗錢防制法使公務人員登載不實等五大罪狀圖聯合報系資料照片立委林楚茵去年召開踢爆謝國樑涉洗錢 從天而降的萬美金記者會質疑謝國樑恐涉公司法巨額逃漏稅洗錢防制法使公務人員登載不實等五大罪狀圖聯合報系資料照片 __                    基隆市長謝國樑圖聯合報系資料照片   基隆市長謝國樑圖聯合報系資料照片基隆市長謝國樑圖聯合報系資料照片     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> __    內政部今日公布年全台建物買賣移轉棟數交易量合計棟較去年量縮六都除台中增加外其餘縣市均明顯減少其中又以高雄衰退與台南減少比例最高顯見南二都熱度漸退另外眾所矚目的   新竹 新竹新竹縣市表現也差強人意新竹市衰退全台最多新竹縣減少                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  大家房屋企劃研究室副理郎美囡指出年在全球央行連續升息經濟表現不佳國內又有打房政策等因素表現不如理想同時也成為年   房地合一 房地合一房地合一上路以來的首次下滑在前景不明下表現恐更糟綜觀各都會表現住商不動產企研室資深經理徐佳馨認為台中雖有交屋潮但難掩頹勢台南與高雄年移轉總量除因為量體不多減少幅度明顯外短期內價格飆升速度太快亦是買氣急凍的重要因素反觀北部因為退燒早在資金退潮下反而持盈保泰至於在   科技業 科技業科技業業績大噴發下受惠的新竹縣市年科技業多數仍處於庫存狀態業績表現不佳加上區域房價已高自然不容易有表現隨著平均地權條例即將上路建商應會更為保守未來市場恐僅有自用與成屋成為交易主力市場動能長期堪憂徐佳馨表示在年交易中值得注意的是彰化南投屏東雲林台東基隆等區域成交量不減反增徐佳馨認為低價區仍有吸金效果加上在地業者積極推案很容易形成一片榮景但要特別注意的是若無實際產業與利多支撐在少子化等壓力下這些區域未來很可能成為外強中乾購屋人不可不注意 __                    資料來源位商不動產   資料來源位商不動產資料來源位商不動產     </t>
   </si>
 </sst>
 </file>

--- a/udn.xlsx
+++ b/udn.xlsx
@@ -516,17 +516,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>進口雞蛋明上架！全聯這些門市買得到 每盒售價68元</t>
+          <t>北市國中便服日穿短褲、短裙遭罵礙眼 校方：主任媽媽心態善意提醒</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/122475/7062455</t>
+          <t>https://udn.com/news/story/6898/7063594</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> __    進口   雞蛋 雞蛋雞蛋來了全聯表示進口雞蛋明日日雙北陸續開賣售價將會落在每盒顆元每人限購盒各門市上架時間依照各店為準售完為止   農委會 農委會農委會日前表示原料蛋拉到洗選場去要開箱回溫上洗選線後還要包裝標示玩再到通路之間的時間最快抓月日可以上架                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  農委會說以蛋源進行調度提供不管提供是進口還是國產雞蛋所有蛋源調度方式會用產地價格加價元得大運輸價格去提供至於產地價多少農委會尊重整個市場機制的報盤價格若北市蛋商公會調整雞   蛋價 蛋價蛋價格販售的進口雞蛋價格也可能調整農委會日前表示有的通路定元也可能有的通路訂元若超商通路會訂元農委會仍會用補助蛋源方式補充通路牌價蛋目前允許進口雞蛋的包括泰國菲律賓澳洲美國日本新加坡馬來西亞巴西土耳其與波蘭其中波蘭因為從法蘭克福機場出發陸運要超過小時加上空運來台班機也不多成本驚人因此目前尚未有雞蛋真正進口成行由於這批進口雞蛋來源是美國澳洲泰國避免洗選通路刻意選擇哪個國家的雞蛋農委會會用平均的方式分配給洗選場只要符合檢驗標準食安標準提供也是以一定價格提供給廠商     </t>
+          <t xml:space="preserve"> __    台灣青年民主協會在臉書指出台北市大同區某國中開放學生在便服日穿著自己喜歡的衣服上學日前卻把國一二學生召集到禮堂體育組組長把上衣或短褲短裙穿比較短的女同學叫去罵學務主任甚至脫口明星這樣穿是養眼你們是礙眼一定要我把話說這麼白嗎青民協表示學校多數已了解不會因為服儀規定而懲處學生卻仍出現不合理的威權管教方式呼籲主管機關通盤檢討青民協表示該校月中學校舉辦朝會時體育組的組長把上衣或短褲短裙穿比較短的女同學叫去罵主任也到台上向學生訓話不要在學校穿那麼裸露的衣服像那種露肚裝或下半身失蹤的短褲和短裙不要跟我說明星也這樣穿你們是明星嗎接著脫口說明星這樣穿是養眼你們是礙眼一定要我把話說這麼白嗎                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  青民協轉述該校學生認為主任如此的發言對學生很不尊重質疑好不容易便服日不讓我們穿自己想穿的還這樣羞辱學生也有學生說我媽都說這樣穿沒怎樣結果被主任說礙眼經青民協向學校反映後主任回覆學校一直都有對學生提醒穿太短或太暴露有安全問題並強調學生便服日朝會要坐地板穿太短會擔心學生的安全主任也補充以後會多注意不希望造成學生的不適以後會盡量不要太限制學生青民協表示國中服儀已解禁多年學校多數已了解法規不會因為服儀規定而懲處學生多數師長也對學生穿著都以正向輔導然而在教學現場仍然出現不合理的威權管教方式老師也許不是故意的但若沒有先理解學生為什麼這樣穿著就先入為主的認為穿得礙眼不只造成師生衝突不論對老師或學生都難免感到無力沮喪青民協也說教育部規定所有國中都必須服裝儀容委員會會議中除了行政人員代表教師代表和家長會代表外學生也應該選舉產生學生代表參與且學生代表應占全體委員總額四分之一以上此外委員會也必須以舉辦校內公聽會說明會或全校性問卷調查等民主參與方式廣納學生及家長意見青民協呼籲台北市教育局應再次主動強調國民中學訂定學生服裝儀容規定之原則各縣市政府對服儀規範執行與民主參與成效佳的學校可以辦理經驗分享提供其他學校參考作法另一方面對於屢次違反規定的學校也應該列入名單加強輔導                文教熱話題    _  志願怎麼填 學測個申教戰守則一次看 _ _  大學剉咧等代寫報告學檔 考招受考驗  _  學測整理包考完對答案 科完整試題與解答一次看  _  學測易寫難工作文題目出爐 這類考生恐難發揮  _  學測數有佛心秒殺題也有超難非選 考生起碼沒去年瘋狂  _  學測英文作文考表情符號閱讀跨地理 考生難易度給笑臉 _ _  專題學習歷程別鬧了首屆課綱生心路大公開     </t>
         </is>
       </c>
     </row>
@@ -536,17 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>北市國中便服日穿短褲、短裙遭罵礙眼 校方：主任媽媽心態善意提醒</t>
+          <t>進口雞蛋明上架！全聯這些門市買得到 每盒售價68元</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6898/7063594</t>
+          <t>https://udn.com/news/story/122475/7062455</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> __    台灣青年民主協會在臉書指出台北市大同區某國中開放學生在便服日穿著自己喜歡的衣服上學日前卻把國一二學生召集到禮堂體育組組長把上衣或短褲短裙穿比較短的女同學叫去罵學務主任甚至脫口明星這樣穿是養眼你們是礙眼一定要我把話說這麼白嗎青民協表示學校多數已了解不會因為服儀規定而懲處學生卻仍出現不合理的威權管教方</t>
+          <t xml:space="preserve"> __    進口   雞蛋 雞蛋雞蛋來了全聯表示進口雞蛋明日日雙北陸續開賣售價將會落在每盒顆元每人限購盒各門市上架時間依照各店為準售完為止   農委會 農委會農委會日前表示原料蛋拉到洗選場去要開箱回溫上洗選線後還要包裝標示玩再到通路之間的時間最快抓月日可以上架                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  農委會說以蛋源進行調度提供不管提供是進口還是國產雞蛋所有蛋源調度方式會用產地價格加價元得大運輸價格去提供至於產地價多少農委會尊重整個市場機制的報盤價格若北市蛋商公會調整雞   蛋價 蛋價蛋價格販售的進口雞蛋價格也可能調整農委會日前表示有的通路定元也可能有的通路訂元若超</t>
         </is>
       </c>
     </row>
@@ -716,17 +716,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>昨「董娘賣股」給市場上了一課 法人籲：落跑注意三警訊</t>
+          <t>影／淡水男騎機車闖紅燈被「彎道火箭」撞上 後座女友吐血喪命</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7251/7062349</t>
+          <t>https://udn.com/news/story/7320/7063703</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> __    美食董娘賣   股票 股票股票消息衝擊股價昨日重挫今日則是收在平盤統計有過董娘申讓持股的公司中幾乎都嚴重衝擊股價的表現最讓投資人印象深刻的首推國巨市場對董娘賣股可說是高度警戒有持股先跑再說法人則是坦言除了大   股東 股東股東高檔賣申讓股票之外其實應該注意的警訊還有兩個一是更換簽證的會計師事務所還有就是財務上的警訊美食董事長吳政學配偶申報賣股張引來市場擔心造成昨日股價重挫但在盤後美食宣布申讓的股票已經鉅額全數轉讓給國際長期投資人今日股價止跌但終場僅收在平盤元美食董娘在股價高檔時申讓持股再勾起市場對曾因董娘賣股造成股價重挫的記憶                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  豐泰國巨都曾有過董事長配偶或前妻申報轉讓持股的情況在董娘賣股之下股價都遭到衝擊而重挫尤以國巨最為激烈在年間國巨股價曾衝上元高價但在股價衝高的時刻董事長陳泰銘前妻以盤後鉅額交易方式賣出萬張股票推估套現億元但也對股價造成嚴重衝擊國巨股價直直落期間董事長陳泰銘親自對外說明強調看好產業前景為股價喊冤但仍敵不過市場賣壓不僅是千金股退位甚至在隔年曾挫低至元國巨股價經過董娘賣股衝擊至今仍無力重回千金股行列也讓市場深刻體會到董娘賣股的強大威力事實上早在國巨之前豐泰就先給市場上了一課年月間豐泰股價曾衝達元的新高價但在董娘申報轉讓張持股消息下引爆市場賣壓股價在月間曾下滑至元兩個月間跌幅證券分析師張陳浩則是表示大股東高檔申報賣股更換簽證會計師事務所財務警訊等都是重要的警訊一旦訊號出現都要小心他說大股東包括前十大股東董事長董事重大關係人例如董娘上下游供應鏈等都包括在內例如台驊投控持有陽明股票一旦出現申讓持股的情況將衝擊股</t>
+          <t xml:space="preserve"> __          新北市淡水區昨晚有對   情侶 情侶情侶吃完消夜共乘機車從路旁起步闖紅燈疑似要穿越馬路被高速直行輛別稱彎道火箭的奧地利進口  黃牌大型重型機車撞上歲女乘客彈飛撞到電線桿大量吐血送醫急救後宣告不治這起車禍發生在昨晚時分左右據了解歲周姓男子與歲林姓女友剛吃完消夜他們共乘機車從路旁起步闖紅燈疑似要穿越北新路往巷方向前進                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  這時歲詹姓男子獨自騎乘黃牌重機綠燈沿北新路往中山北路方向直行因車速過快來不及閃避突然竄出的機車而撞上情侶倆被撞飛滑行到馬路對面林女身體猛烈撞擊路旁電線桿大量吐血之後昏迷送醫途中已無生命跡象急救到深夜時許宣告死亡疑因嚴重內出血喪命名男騎士都沒有飲酒均只受輕傷警方已收到其他車的行車記錄影像並將調閱周邊監視器詳細肇事原因及責任歸屬將進一步調查釐清 __                    情侶的機車被撞到前叉折斷後座女乘客送醫不治記者林昭彰翻攝   情侶的機車被撞到前叉折斷後座女乘客送醫不治記者林昭彰翻攝情侶的機車被撞到前叉折斷後座女乘客送醫不治記者林昭彰翻攝 __                    機車後座乘客林女撞到電線桿大量吐血昏迷送醫不治車禍現場留下大片血跡記者林昭彰翻攝   機車後座乘客林女撞到電線桿大量吐血昏迷送醫不治車禍現場留下大片血跡記者林昭彰翻攝機車後座乘客林女撞到電線桿大量吐血昏迷送醫不治車禍現場留下大片血跡記者林昭彰翻攝 __                    黃牌重機撞擊之後損壞程度並不嚴重記者林昭彰翻攝   黃牌重機撞擊之後損壞程度並不嚴重記者林昭彰翻攝黃牌重機撞擊之後損壞程度並不嚴重記者林昭彰翻攝     </t>
         </is>
       </c>
     </row>
@@ -736,17 +736,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>影／淡水男騎機車闖紅燈被「彎道火箭」撞上 後座女友吐血喪命</t>
+          <t>T1聯盟／網友驚見魔獸旗津與女伴約會 知情人士說明女方身分</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7320/7063703</t>
+          <t>https://udn.com/news/story/7003/7063996</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> __          新北市淡水區昨晚有對   情侶 情侶情侶吃完消夜共乘機車從路旁起步闖紅燈疑似要穿越馬路被高速直行輛別稱彎道火箭的奧地利進口  黃牌大型重型機車撞上歲女乘客彈飛撞到電線桿大量吐血送醫急救後宣告不治這起車禍發生在昨晚時分左右據了解歲周姓男子與歲林姓女友剛吃完消夜他們共乘機車從路旁起步闖紅燈疑似要穿越北新路往巷方向前進                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  這時歲詹姓男子獨自騎乘黃牌重機綠燈沿北新路往中山北路方向直行因車速過快來不及閃避突然竄出的機車而撞上情侶倆被撞飛滑行到馬路對面林女身體猛烈撞擊路旁電線桿大量吐血之後昏迷送醫途中已無生命跡象急救到深夜時許宣告死亡疑因嚴重內出血喪命名男騎士都沒有飲酒均只受輕傷警方已收到其他車的行車記錄影像並將調閱周邊監視器詳細肇事原因及責任歸屬將進一步調查釐清 __                    情侶的機車被撞到前叉折斷後座女乘客送醫不治記者林昭彰翻攝   情侶的機車被撞到前叉折斷後座女乘客送醫不治記者林昭彰翻攝情侶的機車被撞到前叉折斷後座女乘客送醫不治記者林昭彰翻攝 __                    機車後座乘客林女撞到電線桿大量吐血昏迷送醫不治車禍現場留下大片血跡記者林昭彰翻攝   機車後座乘客林女撞到電線桿大量吐血昏迷送醫不治車禍現場留下大片血跡記者林昭彰翻攝機車後座乘客林女撞到電線桿大量吐血昏迷送醫不治車禍現場留下大片血跡記者林昭彰翻攝 __                    黃牌重機撞擊之後損壞程度並不嚴重記者林昭彰翻攝   黃牌重機撞擊之後損壞程度並不嚴重記者林昭彰翻攝黃牌重機撞擊之後損壞程度並不嚴重記者林昭彰翻攝     </t>
+          <t xml:space="preserve"> __       魔獸 魔獸魔獸   霍華德 霍華德霍華德 加盟桃園雲豹隊以來話題不斷除了場上表現外在風情萬種的他是否會在台灣傳出緋聞也是球迷茶餘飯後焦點日前有網友在發文表示朋友在旗津老街遇到霍華德與女伴約會引來球迷熱烈討論根據月日  _魔獸的新女友一文有網友目睹霍華德與一名女性牽手漫遊旗津老街親近的互動不禁讓人們懷疑兩者之間的關係不少網友都開玩笑他是在為年後的台灣籃壇努力之後將有第一個台灣人加入                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  不過也有自稱知情人士的人跳出來留言說明自己認識霍華德坦白說魔獸本人我是有接觸 他家也去過幾次他的大概的行程也參與過部分並指出該女性並非台灣人兩人只是陪伴關係對方就美國女人不用那麼繪聲繪影賽季已接近尾聲如承諾般待完整季的霍華德目前場均分籃板助攻或許不如外界設想般宰制聯盟但言行舉止帶來的話題卻已相當顯著                 世界棒球經典賽    _  經典賽即時新聞  _  最新比分與完整賽程  _  預賽分組戰績表  _  經典賽專欄分析     </t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>T1聯盟／網友驚見魔獸旗津與女伴約會 知情人士說明女方身分</t>
+          <t>中環賣出長榮 處分利益約達800萬元</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7003/7063996</t>
+          <t>https://udn.com/news/story/7253/7062623</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> __       魔獸 魔獸魔獸   霍華德 霍華德霍華德 加盟桃園雲豹隊以來話題不斷除了場上表現外在風情萬種的他是否會在台灣傳出緋聞也是球迷茶餘飯後焦點日前有網友在發文表示朋友在旗津老街遇到霍華德與女伴約會引來球迷熱烈討論根據月日  _魔獸的新女友一文有網友目睹霍華德與一名女性牽手漫遊旗津老街親近的互動不禁讓人們懷疑兩者之間的關係不少網友都開玩笑他是在為年後的台灣籃壇努力之後將有第一個台灣人加入                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  不過也有自稱知情人士的人跳出來留言說明自己認識霍華德坦白說魔獸本人我是有接觸 他家也去過幾次他的大概的行程也參與過部分並指出該女性並非台灣人兩人只是陪伴關係對方就美國女人不用那麼繪聲繪影賽季已接近尾聲如承諾般待完整季的霍華德目前場均分籃板助攻或許不如外界設想般宰制聯盟但言行舉止帶來的話題卻已相當顯著                 世界棒球經典賽    _  經典賽即時新聞  _  最新比分與完整賽程  _  預賽分組戰績表  _  經典賽專欄分析     </t>
+          <t xml:space="preserve"> __    光碟片大廠   中環 中環中環繼先前敲進長榮陽明後日宣布處分長榮持股處分利益約達萬元中環日代子公司   中嘉 中嘉中嘉國際投資公告處分   長榮海運 長榮海運長榮海運普通股交易數量達張每單位價格元交易總金額約達億元處分利益約達萬元                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  中環本月日才代子公司中嘉國際投資公告取得取得長榮海運普通股交易數量張每單位價格元交易總金額為億元此外中環日亦取得   陽明海運 陽明海運陽明海運普通股交易數量張每單位價格元交易總金額達億元     </t>
         </is>
       </c>
     </row>
@@ -776,17 +776,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>中環賣出長榮 處分利益約達800萬元</t>
+          <t>不滿陳建仁答詢狀況外 綠委林岱樺高分貝再飆官員：叫妳閉嘴</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7253/7062623</t>
+          <t>https://udn.com/news/story/6656/7062435</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> __    光碟片大廠   中環 中環中環再度出手航運族群今日公告處分部分長榮持股處分利益約達萬元中環今日再反手敲進張長榮此外中環亦取得張陽明累計中環今日砸下逾億元於長榮陽明中環代子公司   中嘉 中嘉中嘉國際投資公告取得取得   長榮海運 長榮海運長榮海運普通股交易數量張每單位價格元交易總金額為億元                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  中環亦公告中嘉國際處分長榮海運普通股交易數量達張每單位價格元交易總金額約達億元處分利益約達萬元此外中環亦取得   陽明海運 陽明海運陽明海運普通股交易數量張每單位價格元交易總金額達億元     </t>
+          <t xml:space="preserve"> __    民進黨立委   林岱樺 林岱樺林岱樺今天在   立法院 立法院立法院質詢傳銷產業議題指現行主管機關公平會是類司法組織不適合擔任主管機關呼籲交由經濟部接掌行政院長   陳建仁 陳建仁陳建仁不認同請身旁的公平會主委李鎂說明林岱樺不滿直接發飆說閉嘴本席在質詢叫妳閉嘴要求陳建仁回答並請他謙虛一點林岱樺長期關切傳產議題今天質詢她指公平會保守無作為無法帶動國內傳銷產業發展也無法防治變質多層次的傳銷詐騙造成傳銷業停滯不前認為公平會不適合擔任傳銷業主管機關                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  林岱樺主張應該由經濟部接掌傳銷產業只要將多層次傳銷管理和公平交易委員會組織法拿掉再將多層次傳銷管理增列在經濟部組織法中就可以完成林岱樺不滿陳建仁答詢內容認為陳揆未看清楚她質詢簡報內容這個產業我非常清楚院長請你謙虛一點雖然國事如麻還是交給副院長由他做幕僚單位綜合這些部會可以嗎陳建仁不斷提到韓國例子並請身邊的李鎂說明林岱樺不滿質疑陳揆和李鎂不斷講到韓國但是台灣否能像韓國一樣監理氣得發飆高分貝請李鎂閉嘴請陳建仁答詢林岱樺不滿陳建仁沒進入狀況也沒有看清楚簡報內容說自己每次質詢都花好幾個小時在準備並指韓國每筆資料都由政府監管且每家公司每年按照營業額提撥保證金懷疑台灣是否做得到陳建仁請林不要生氣允諾會召開協調會討論     </t>
         </is>
       </c>
     </row>
@@ -796,17 +796,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>不滿陳建仁答詢狀況外 綠委林岱樺高分貝再飆官員：叫妳閉嘴</t>
+          <t>MLB／留洛杉磯卻非天使？專家預測道奇將用11年大約簽下大谷</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6656/7062435</t>
+          <t>https://udn.com/news/story/6999/7063692</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> __    民進黨立委   林岱樺 林岱樺林岱樺今天在   立法院 立法院立法院質詢傳銷產業議題指現行主管機關公平會是類司法組織不適合擔任主管機關呼籲交由經濟部接掌行政院長   陳建仁 陳建仁陳建仁不認同請身旁的公平會主委李鎂說明林岱樺不滿直接發飆說閉嘴本席在質詢叫妳閉嘴要求陳建仁回答並請他謙虛一點林岱樺長期關切傳產議題今天質詢她指公平會保守無作為無法帶動國內傳銷產業發展也無法防治變質多層次的傳銷詐騙造成傳銷業停滯不前認為公平會不適合擔任傳銷業主管機關                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  林岱樺主張應該由經濟部接掌傳銷產業只要將多層次傳銷管理和公平交易委員會組織法拿掉再將多層次傳銷管理增列在經濟部組織法中就可以完成林岱樺不滿陳建仁答詢內容認為陳揆未看清楚她質詢簡報內容這個產業我非常清楚院長請你謙虛一點雖然國事如麻還是交給副院長由他做幕僚單位綜合這些部會可以嗎陳建仁不斷提到韓國例子並請身邊的李鎂說明林岱樺不滿質疑陳揆和李鎂不斷講到韓國但是台灣否能像韓國一樣監理氣得發飆高分貝請李鎂閉嘴請陳建仁答詢林岱樺不滿陳建仁沒進入狀況也沒有看清楚簡報內容說自己每次質詢都花好幾個小時在準備並指韓國每筆資料都由政府監管且每家公司每年按照營業額提撥保證金懷疑台灣是否做得到陳建仁請林不要生氣允諾會召開協調會討論     </t>
+          <t xml:space="preserve"> __       大谷翔平 大谷翔平大谷翔平將在本休賽季成為自由球員屆時勢必引起各隊競逐根據 記者鮑登 預測   道奇 道奇道奇隊這個冬天將以超大合約簽下這名巨星雖然有大谷楚奧特Ｍ 兩指標球星在內   天使 天使天使隊戰績卻持續不振季後賽荒至今尚未破除除了多次重申渴望打入季後賽外大谷也曾表示對於球隊表現感到失望這使得他在下賽季轉投他處的可能性越來越高                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  作為投打皆是王牌等級的球星各豪門球隊想撒大錢網羅大谷早已不是新聞   大都會 大都會大都會   教士 教士教士等隊皆為可能下家不過鮑登在他的  _開季預測中表示大谷將前往洛杉磯的另一支球隊大谷會投入自由市場並和道奇簽下年合約合約總額億美金的球員此外鮑登也認為大谷將在本季收下生涯第二座美聯上次他獲得該獎項為年上季雖然也呼聲頗高最終卻敗給揮出發全壘打的賈吉 屈居排行第二另外鮑登預測的國聯為勇士隊亞古納  大谷解決楚奧特帶領日本拿下冠軍並成為本屆經典賽後在棒球界地位更上一層樓若他真如預測所言來到同城卻更具聲量的道奇或許將成為世上最有名的球星                 世界棒球經典賽    _  經典賽即時新聞  _  最新比分與完整賽程  _  預賽分組戰績表  _  經典賽專欄分析     </t>
         </is>
       </c>
     </row>
@@ -816,17 +816,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>僅4年時間！中國大陸成為南韓最大逆差國 原因曝光</t>
+          <t>獨／顏寬恒原本鐵了心拒保 顏清標父子僵3小時軟化</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/7062738</t>
+          <t>https://udn.com/news/story/122555/7064238</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> __       南韓 南韓南韓貿易協會日發布統計數據今年首個月南韓對中國大陸貿易逆差累計億美元約   台幣 台幣台幣億元大陸成為南韓今年最大貿易逆差國年南韓對大陸順差規模居各國之首不到年後的現在大陸已逆轉局面韓國每日經濟新聞英文版網站報導南韓月對大陸貿易收支出現億美元約台幣億元逆差成為南韓單月最大貿易逆差國                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  數據顯示南韓月對大陸貿易狀況也沒有好轉前天對大陸出口年減從大陸進口卻增加這是大陸首次成為南韓單月及全年最大貿易逆差國南韓上次對大陸出現貿易逆差是在年逆差累計為億美元約台幣億元澳洲沙烏地阿拉伯分別是南韓第第大貿易逆差國澳洲為南韓最大天然氣進口國今年首兩個月貿易額略降累計為億美元約台幣億元沙烏地阿拉伯則是南韓最大原油進口國今年累計貿易逆差額為億美元約台幣億元根據年南韓對大陸貿易順差為億美元約台幣兆元順差規模居各國之首年順差額億美元約億台幣元也排在第年順差額億美元約台幣億元及年順差額億美元約台幣億元皆位居第但至年南韓對大陸貿易順差只剩億美元約台幣億元大跌至第位指出南韓對大陸貿易出現逆差可能歸咎於大陸疫情期間的動態清零政策及封城措施拖累經濟成長導致南韓對大陸出口減少同時鋰等工業原物料價格大漲導致南韓自大陸進口額劇增報導指出南韓今年對大陸貿易逆差最大品項依序是精密化工原料乾電池電腦工業電子設備等南韓貿易協會人員張相植 譯音表示在全球五大貿易經濟體中大陸以不斷增加的龐大出口躍居全球第大陸正逐漸轉變為內需驅動的國家張相植指出大陸主導出口中間產品及消費品與南韓的出口結構相似一些分析師認為近幾年來大陸對南韓出口增加最多的是精密工業原料如電池原料高科技中間產品如無線通訊設備高端消費品如智慧型手機等顯示大陸與南韓的貿易正逐漸轉變為產業內貿易張相植表示在所有南韓重要經濟夥伴中大陸與南韓的產業內貿易現象最明顯若南韓政府希望提高對大陸的出口額並在全球市場保持競爭優勢南韓勢必得將出口品目轉為大陸進口需求大的品目爭取將雙方貿易發展為雙贏局面     </t>
+          <t xml:space="preserve"> __    國民黨前立委   顏寬恒 顏寬恒顏寬恒無預警遭檢調詢問與千萬交保投下政壇震撼彈顏寬恒今早出面說明原打算拒絕交保幾經波折才同意據了解顏寬恒與   顏清標 顏清標顏清標父子隔空對話兩三小時顏寬恒原本鐵了心不交保抗議司法不公但幕僚紅著眼眶直說這樣太刺激標哥身體最後顏寬恒才同意籌措保金交保檢調動作突然據了解顏寬恒昨晚從自宅被帶走他對檢調所說的案情無法接受認為是舊案重炒當聽到妻子以萬元交保時他當下決定拒絕交保因為早在去年補選時就把違建案情交代清楚現在卻又舊案重提要抗議司法不公                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  據了解顏清標聽到幕僚轉述顏寬恒要拒絕交保顏清標非常震驚當時連手拿東西手都拿不穩頻頻要幕僚溝通平安回來最重要顏寬恒反駁說今天千萬交保就被綠營壓著打什麼都說不清楚了顏家父子對峙個小時後來幕僚告訴顏寬恒標哥情緒激動怕太刺激標哥身體最後顏才同意交保據轉述顏寬恒要抗議司法不公但顏清標認為人回來就好平安就好也怕顏寬恒會被抓起來父子來回溝通讓幕僚也紅了眼眶對於舊案再提顏寬恒今早出面說明但難掩沮喪情緒 __                    國民黨前立委顏寬恒昨晚遭檢調帶走最後以千萬元交保他今早出面澄清質疑司法不公記者黃仲裕攝影   國民黨前立委顏寬恒昨晚遭檢調帶走最後以千萬元交保他今早出面澄清質疑司法不公記者黃仲裕攝影國民黨前立委顏寬恒昨晚遭檢調帶走最後以千萬元交保他今早出面澄清質疑司法不公記者黃仲裕攝影     </t>
         </is>
       </c>
     </row>
@@ -836,17 +836,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>中職／滿壘計反射兄弟 悍將熱身賽勝率7成8登頂龍頭</t>
+          <t>清明過後財神護祐！「4生肖」有暴富運 第一名錢財生生不息</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7001/7062872</t>
+          <t>https://udn.com/news/story/7268/7060974</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> __    富邦悍將中信兄弟隊今天上演投手戰悍將洋投艾普勒先發局僅被敲安打無失分後續任後援投手也都成功把關分領先悍將終場以擊敗兄弟在官辦熱身賽以勝敗勝率成超越兄弟的勝敗勝率成悍將躍居第一兄弟由左投象魔力先發局失分無責失失分出現在第局高國輝先敲二壘打姚冠瑋連續打席都造成游擊手江坤宇的失誤形成一三壘有人辛元旭的滾地球送回分也是兩軍此役僅有的分數進帳                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  兄弟全場僅安打受制於悍將投手封鎖艾普勒的局好投之後吳世豪歐書誠皆中繼局無失分最大危機在   曾峻岳 曾峻岳曾峻岳負責的第局出現一出局後先被岳東華敲出安打再連續保送福來喜周思齊面臨滿壘危機連續掉李聖裕曾頌恩守住領先富藍戈局登板以保送開局犧牲觸擊推進二壘後陳文杰球的纏鬥最終以三壘方向飛球出局作收再面對詹子賢飆出再見三振斗六球場之戰味全龍隊一度以領先面臨   樂天桃猿 樂天桃猿樂天桃猿隊以全壘打強勢追分宋嘉翔兩分砲朱育賢三分砲相繼炸裂龍隊終場仍以險勝                 世界棒球經典賽    _  經典賽即時新聞  _  最新比分與完整賽程  _  預賽分組戰績表  _  經典賽專欄分析     </t>
+          <t xml:space="preserve"> __    清明連假後許多人的   運勢 運勢運勢開始轉變有好有壞各有不同然而有些人的   財運 財運財運將要在清明過後開始爆發這讓自己難以置信的好運勢是否屬於你呢以下一一揭曉最強財運的四個生肖 __第四名生肖狗整體而言前段時間在財運上可能有些不如意或是無法達成自己所想要的目標但是過了清明之後就要雲開見日財運逐漸邁向平穩順遂的道路你可以選擇輕鬆悠哉的生活收支平衡穩定入財或是採取積極態度膽大心細的入場投資讓自己的財庫更加飽滿簡單而言清明過後的你只要自己願意努力財富就有機會往上累積收穫豐碩的果實                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播   __第三名生肖猴前幾個月的財運起起落落時好時壞有時候感覺自己彷彿大海撈針白白浪費了許多心力實在是難以有收穫但是不要憂鬱從清明過後自己的財運將要開始抬頭如果有夥伴要找你一起投資可以多加詳談討論會找到非常好的目標如果要創業也可以開始準備對於非固定薪資的人更要加把勁你會發現許多獲利管道讓財運不斷的漸漸開始湧入 __第二名生肖鼠生意場上的人準備要開始走運了有機會接獲不錯的訂單或簽下獲利頗多的合約如果是餐飲業者業績將要不斷的向上攀升但是有一點必須提醒因為財運來得很快容易有自滿的現象建議你要常保謙虛的笑容善待每一名客戶千萬記住眼光要遠回頭客才是你真正的財神爺一般上班族則可以開始充實自己的能力這些技能將會在未來帶來豐富的入財 __第一名生肖馬當財神爺選中你時就像摸彩獲得   頭獎 頭獎頭獎一般上天都要為你撒花了   清明節 清明節清明節過後這難得的幸運兒非你莫屬財運如魚得水無往不利能夠生生不息的不斷翻轉讓你在各方面都有獲利的機會雖然擁有好運勢但是自己一定要努力這波運勢屬於付出與收穫的因果如果只想等天上掉下餡餅那不如直接去市場買一個會比較快所以千萬記住自己要先好好努力才不會浪費了大好運   此為民俗說法不代表本新聞網立場切勿過度迷信      </t>
         </is>
       </c>
     </row>

--- a/udn.xlsx
+++ b/udn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,366 +490,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>疑上課用手機被師檢討 台中男高中生從學校4樓墜下手腳骨折</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>https://udn.com/news/story/7320/7063616</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __    台中一名男高中生上午時許從學校四樓墜下消防局據報已將學生送醫搶救初步了解該名學生因為上課使用手機被老師叫到四樓的教師辦公室問並要學生自我檢討寫書面報告後來學生就自行走出辦公室並往下躍下這一幕也讓老師驚嚇不已                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  醫院說男患者意識清楚沒有生命危險學生傷勢有腦出血氣胸肺挫傷左側骨盆大腿小腿骨折左手肱骨骨折  珍惜生命若您或身邊的人有心理困擾可撥打安心專線生命線協談專線張老師專線 __                    台中市一名高中一年級男學生上午從學校樓墜下 圖民眾提供   台中市一名高中一年級男學生上午從學校樓墜下 圖民眾提供台中市一名高中一年級男學生上午從學校樓墜下 圖民眾提供     </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>北市國中便服日穿短褲、短裙遭罵礙眼 校方：主任媽媽心態善意提醒</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://udn.com/news/story/6898/7063594</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __    台灣青年民主協會在臉書指出台北市大同區某國中開放學生在便服日穿著自己喜歡的衣服上學日前卻把國一二學生召集到禮堂體育組組長把上衣或短褲短裙穿比較短的女同學叫去罵學務主任甚至脫口明星這樣穿是養眼你們是礙眼一定要我把話說這麼白嗎青民協表示學校多數已了解不會因為服儀規定而懲處學生卻仍出現不合理的威權管教方式呼籲主管機關通盤檢討青民協表示該校月中學校舉辦朝會時體育組的組長把上衣或短褲短裙穿比較短的女同學叫去罵主任也到台上向學生訓話不要在學校穿那麼裸露的衣服像那種露肚裝或下半身失蹤的短褲和短裙不要跟我說明星也這樣穿你們是明星嗎接著脫口說明星這樣穿是養眼你們是礙眼一定要我把話說這麼白嗎                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  青民協轉述該校學生認為主任如此的發言對學生很不尊重質疑好不容易便服日不讓我們穿自己想穿的還這樣羞辱學生也有學生說我媽都說這樣穿沒怎樣結果被主任說礙眼經青民協向學校反映後主任回覆學校一直都有對學生提醒穿太短或太暴露有安全問題並強調學生便服日朝會要坐地板穿太短會擔心學生的安全主任也補充以後會多注意不希望造成學生的不適以後會盡量不要太限制學生青民協表示國中服儀已解禁多年學校多數已了解法規不會因為服儀規定而懲處學生多數師長也對學生穿著都以正向輔導然而在教學現場仍然出現不合理的威權管教方式老師也許不是故意的但若沒有先理解學生為什麼這樣穿著就先入為主的認為穿得礙眼不只造成師生衝突不論對老師或學生都難免感到無力沮喪青民協也說教育部規定所有國中都必須服裝儀容委員會會議中除了行政人員代表教師代表和家長會代表外學生也應該選舉產生學生代表參與且學生代表應占全體委員總額四分之一以上此外委員會也必須以舉辦校內公聽會說明會或全校性問卷調查等民主參與方式廣納學生及家長意見青民協呼籲台北市教育局應再次主動強調國民中學訂定學生服裝儀容規定之原則各縣市政府對服儀規範執行與民主參與成效佳的學校可以辦理經驗分享提供其他學校參考作法另一方面對於屢次違反規定的學校也應該列入名單加強輔導                文教熱話題    _  志願怎麼填 學測個申教戰守則一次看 _ _  大學剉咧等代寫報告學檔 考招受考驗  _  學測整理包考完對答案 科完整試題與解答一次看  _  學測易寫難工作文題目出爐 這類考生恐難發揮  _  學測數有佛心秒殺題也有超難非選 考生起碼沒去年瘋狂  _  學測英文作文考表情符號閱讀跨地理 考生難易度給笑臉 _ _  專題學習歷程別鬧了首屆課綱生心路大公開     </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>進口雞蛋明上架！全聯這些門市買得到 每盒售價68元</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://udn.com/news/story/122475/7062455</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __    進口   雞蛋 雞蛋雞蛋來了全聯表示進口雞蛋明日日雙北陸續開賣售價將會落在每盒顆元每人限購盒各門市上架時間依照各店為準售完為止   農委會 農委會農委會日前表示原料蛋拉到洗選場去要開箱回溫上洗選線後還要包裝標示玩再到通路之間的時間最快抓月日可以上架                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  農委會說以蛋源進行調度提供不管提供是進口還是國產雞蛋所有蛋源調度方式會用產地價格加價元得大運輸價格去提供至於產地價多少農委會尊重整個市場機制的報盤價格若北市蛋商公會調整雞   蛋價 蛋價蛋價格販售的進口雞蛋價格也可能調整農委會日前表示有的通路定元也可能有的通路訂元若超</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>便當店名加「這2字」價格暴增、客人還全轉性 網：流量密碼？</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://udn.com/news/story/120911/7062645</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __    簡單改店名菜單價格就可以提高有網友發文分享公司附近的一家   便當 便當便當店原本品項價格不到一百元沒想到過年後店家重新裝潢改名價格竟暴增讓原大嘆是不是便當店的流量密碼一名網友在  _發文表示公司附近有一家便當店原本叫做   烤肉 烤肉烤肉飯主菜有烤肉片雞腿排骨等開了好幾年價格也從元漲至元通常是男同事會訂的便當店                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  原接續說道該家便當店今年過年後重新裝潢改叫韓式燒肉便當內容完全一樣只是多加一種甜甜的醬跟灑芝麻價格暴增變成元起跳原表示自己後來很少訂這家的便當但發現許多女同事都開始訂這家的便當有女同事還說好吃原隨後告知是以前的烤肉飯換名字加價而已該名女同事則說以前沒買過看到韓式兩個字才想買買看的原因此好奇   女生 女生女生是不是對韓式兩個字沒抵抗力這是不是便當店的流量密碼對此有網友表示認同迷妹對歐巴的意淫加成難吃也要哭著說好吃我是欸有網友則說我相反看到韓式就不喜歡韓式標了我直接跳過也有網友分析這樣的現象不僅限於韓式家裡附近的便當店改名成日式食堂也漲了五成生意更好了加個韓式日式義式法式哪怕你料理分明是台式的都還是會有人買     </t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>氣氛微妙 美臨時喊停蔡總統過境簡報</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>https://udn.com/news/story/123444/7063382</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __    蔡英文總統準備出訪中美洲並過境   美國 美國美國就在出發前夕美國   國務院 國務院國務院亞太助卿康達臨時延後針對蔡過境的簡報白宮國安會重申蔡過境美國並不罕見這是非官方的過境此外美國官員沒有計畫要與蔡碰面國務卿布林肯 日會晤   巴拉圭 巴拉圭巴拉圭外長稱民主國家需要團結一致對抗人權和自由的壓迫者國務院表示對於巴拉圭對台灣有原則的承諾巴拉圭在多邊論壇針對中俄等諸多棘手議題的表態以及兩國在聯合國人權理事會的優先議題的主張布林肯表達感謝                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  在宏都拉斯與中華民國斷交後外界憂心下一個可能生變的邦交國就是巴拉圭華府外籍記者俱樂部日發布簡報會通知載明主題為台灣總統過境美國簡報人為負責美中台事務的亞太助卿康達 不過就在簡報舉行前半小時外籍記者俱樂部分別通知延期與取消並說會在準備好的時候宣布新的簡報日期與時間這可能是中華民國總統在兩國斷交後的歷次過境以來首次有美國國務院資深官員為過境特別舉行簡報會最後一刻喊停備受關注國務院和外籍記者俱樂部並未說明原因國務院拒絕評論這項行程變動的原因與安排白宮和國務院發言人近日分別就蔡總統過境表示這符合美國長期以來的做法和不變的一個中國政策過境待遇出於對乘客的安全舒適便利與尊嚴考量進行白宮國安會戰略溝通協調官柯比 上周表示台灣總統過境美國行之有年北京沒有理由反應過度媒體詢問美國官員是否會趁著蔡過境時會晤或打電話柯比日說美國政府官員沒有計畫要和她碰面 __                    蔡英文總統準備出訪中美洲並過境美國但在出發前夕美國國務院亞太助卿康達</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>用手機被檢討…台中高中生4樓墜地骨折腦出血 師目擊受驚嚇</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://udn.com/news/story/7320/7064102</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __     __                    台中市一名高中一年級男學生上午從學校樓墜下 圖民眾提供   台中市一名高中一年級男學生上午從學校樓墜下 圖民眾提供台中市一名高中一年級男學生上午從學校樓墜下 圖民眾提供   台中市 台中市台中市一名高中一年級男學生上午時許從學校樓墜下造成腦出血氣胸肺挫傷和身上多處   骨折 骨折骨折據了解該名學生因為上課時使用手機被老師叫到教師辦公室要求檢討後來即自行走出辦公室躍下                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  醫院說男學生有腦出血氣胸肺挫傷左側骨盆大腿小腿骨折左手肱骨骨折等傷傷勢嚴重目前仍觀察中初步了解因為上課禁止使用手機該學生私藏手機使用導師因此請他到樓的老師辦公室請他寫自我檢討闡述私藏手機原因現場並無爭執但 該名學生卻突然就往辦公室門口走後來由樓躍下這一幕也讓老師驚嚇不已台中市   教育局 教育局教育局表示教育局第一時間掌握訊息立即派員前往醫院探視目前以救治學生為首務有關目擊學生同班同學及時關懷部分已請學校立刻著手處理教育局學諮中心也派專業輔導人員進駐從旁協助  珍惜生命若您或身邊的人有心理困擾可撥打安心專線生命線協談專線張老師專線     </t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>顏寬恒交重保／事出突然 親友擔心顏清標身體吃不消</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://udn.com/news/story/123307/7063719</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __    前立委   顏寬恒 顏寬恒顏寬恒被質疑沙鹿豪宅出售過程檢方今天凌晨諭令萬元交保事出突然不少人一早打電話給   顏清標 顏清標顏清標父子想問詳細狀況目前還沒有下文親友則擔心顏清標身體狀況去年月立委補選顏寬恒輸給民進黨林靜儀顏家整理立委補選期間被質疑的兩處住宅低於市價出售違建風波靠一段落不料顏寛恒剛完成國民黨內立委登記不料豪宅違又上演                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  去年立委補選期間有媒體打電話問顏清標有關他母親的墳墓是否涉及違建顏清標血壓飇升急送光田醫院急診讓家人嚇出一身冷汗因顏清標三年前曾動換肝大手術曾花了兩個月時間在溪頭健行每天花兩三個小時健走抱大樹吸收芬多精顏清標原本喝酒海量現已戒酒多年但地方人士邀宴宮廟邀請等他幾乎來者不拒在地方的曝光度極高台中市議會副議長顏莉敏在議員選舉拿下第二選區最高票據了解顏清標天天拿著手機打電話不停拜票直到選舉結束才鬆了一口氣顏清標把重心放在餐飲業因他愛吃美食不愛大宴更喜歡各地巷弄小吃𢤦吃人脈深廣地方人士或朋友投資多希望邀他參加     </t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>涉沙鹿豪宅違建？顏寬恒夫妻遭檢調搜索 今1000萬、500萬交保</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>https://udn.com/news/story/122555/7063522</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __             顏寬恒 顏寬恒顏寬恒去年參加台中第二選區立委補選扯出沙鹿豪宅違建案上周顏爭取黨內提名參選再戰立委但沒想到檢調昨天帶回顏寬恒陳麗淩夫妻依偽造文書等罪嫌偵辦今天凌晨命二人以萬元萬元交保候傳據查顏寬恒夫妻被檢調帶回的案件與沙鹿豪宅違建案有關全案檢方是以竊佔偽造文書使公務員登載不實等罪嫌偵辦由主任檢察官黃怡華檢察官鄭佩琪黃裕峯等人指揮中機站航業處搜索                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  台中地檢署襄閱主任檢察官詹常輝證實有此案今天凌晨檢察官訊問後已命涉案人以萬萬元交保詳細案情因仍待調查尚無法對外界說明    </t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>他辦好市多卡怨「為何給我這種的？」 內行人羨慕：財力雄厚</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>https://udn.com/news/story/120915/7062765</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __    美式賣場   好市多 好市多好市多採會員付費制民眾申辦會員後才能憑卡入場消費不過有網友在臉書透露自己只是想申辦一般的好市多卡但收到的卡片卻不是他一開始申辦的樣式讓他網抱怨為什麼給我這種的不過有內行人一眼就認出要辦這張卡的  _門檻得要年收入萬以上才能辦從原在臉書   爆怨公社 爆怨公社爆怨公社  _貼出的照片看到他拿到兩張卡片一張黑色卡寫著大大的字旁邊還有 字樣另一張則是富邦聯名卡上面有好市多和晶片不過似乎都不是原一開始想申辦的卡片                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  不過貼文卻引來不少人吐嘈你該不會跟我一樣按錯吧我想按鈦商卡中間那個結果按到最左邊這張卡額度有七位數嗎剪掉不就解決了世界卡額度不一定特別高門檻有很高嗎這也可以炫再厲害也是只能帶一個人這結帳可以不用排隊嗎進去買東西還不是一樣要排隊付錢什麼卡還不是刷就要還如果是那種無限刷不用還的才厲害這張卡隨便就辦得到很難嗎年費多繳一點就有了但也有網友很羨慕財力雄厚看到那個就是實力雄厚這是另類的炫富嗎家財萬貫喔哇好有質感真羨慕其中有內行人就說卡出國滿好的可以免費去貴賓室 超好用耶幾乎全世界的機場貴賓室都可以免費進去辦這張卡門檻要年薪萬或是存款萬或是不動產股票等價值萬 __                    原申辦好市多卡但收到的卡片卻不是他要的 圖擷自爆怨公社   原申辦好市多卡但收到的卡片卻不是他要的 圖擷自爆怨公社原申辦好市多卡但收到的卡片卻不是他要的 圖擷自   _爆怨公社     </t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>擺拍狒狒屍體引眾怒 桃園市府專委盧紀燁吐露請辭心聲</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>https://udn.com/news/story/123439/7062874</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __          東非   狒狒 狒狒狒狒逃亡天最後遭獵人槍擊身亡   桃園 桃園桃園市政府資科局專委盧紀燁因擺拍引發眾怒據了解盧紀燁下午已向市長張善政請辭獲准並在請辭時不斷表示歉意並表示會暫且休息據了解盧紀燁在事件發生後立即神隱致電多通也無法接通僅知下午現身楊梅警局作證不願意多談狒狒相關的事情                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  據市府人士轉述盧紀燁並不戀棧自己的職位請辭的時候也不斷向市府團隊致歉自己也感到很惋惜沒有辦法發揮自己智慧農業的專長市府農業局晚間表示盧紀燁為資科局支援農業局智慧農業及推動農業科技化的人員此次行動中協助操作無人機及高解析度熱成像儀市府指出此次盧紀燁因思慮不周做出不當行為引發社會大眾質疑已於下午請辭獲准而農業局長陳冠義也因督導不周向市長自請處分 __                    桃園市政府資科局專委盧紀燁因擺拍狒狒屍體引發眾怒盧紀燁已向市長張善政請辭獲准並在請辭時不斷表示歉意記者陳正興攝影   桃園市政府資科局專委盧紀燁因擺拍狒狒屍體引發眾怒盧紀燁已向市長張善政請辭獲准並在請辭時不斷表示歉意記者陳正興攝影桃園市政府資科局專委盧紀燁因擺拍狒狒屍體引發眾怒盧紀燁已向市長張善政請辭獲准並在請辭時不斷表示歉意記者陳正興攝影     </t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>「擺拍狒狒」引爆全民怒火 桃園市府專委盧紀燁請辭獲准</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>https://udn.com/news/story/123439/7062607</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __    東非   狒狒 狒狒狒狒昨天死於獵人槍下農業局專委盧紀燁因現場和中槍狒狒拍照引爆全民怒火   桃園 桃園桃園市府晚間表示盧紀燁稍早已請辭獲准農業局長陳冠義也向市長張善政自請處分新聞處長羅楚東指出盧紀燁擁有科技農業專業從資科局借調到農業局服務希望為推動桃園農業轉型盡一份心力但此次支援狒狒圍捕作業期間因思慮不周做出不當行為引發社會大眾質疑因此已於下午請辭獲准陳冠義也因督導不周向張市長自請處分                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  羅楚東轉述張善政說法表示市府團隊會記取教訓對生命抱持嚴肅尊重的態度至於此次圍捕過程的缺失也要求農業局盡速提出檢討報告與精進作為以釋外界疑慮     </t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>影／淡水男騎機車闖紅燈被「彎道火箭」撞上 後座女友吐血喪命</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>https://udn.com/news/story/7320/7063703</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __          新北市淡水區昨晚有對   情侶 情侶情侶吃完消夜共乘機車從路旁起步闖紅燈疑似要穿越馬路被高速直行輛別稱彎道火箭的奧地利進口  黃牌大型重型機車撞上歲女乘客彈飛撞到電線桿大量吐血送醫急救後宣告不治這起車禍發生在昨晚時分左右據了解歲周姓男子與歲林姓女友剛吃完消夜他們共乘機車從路旁起步闖紅燈疑似要穿越北新路往巷方向前進                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  這時歲詹姓男子獨自騎乘黃牌重機綠燈沿北新路往中山北路方向直行因車速過快來不及閃避突然竄出的機車而撞上情侶倆被撞飛滑行到馬路對面林女身體猛烈撞擊路旁電線桿大量吐血之後昏迷送醫途中已無生命跡象急救到深夜時許宣告死亡疑因嚴重內出血喪命名男騎士都沒有飲酒均只受輕傷警方已收到其他車的行車記錄影像並將調閱周邊監視器詳細肇事原因及責任歸屬將進一步調查釐清 __                    情侶的機車被撞到前叉折斷後座女乘客送醫不治記者林昭彰翻攝   情侶的機車被撞到前叉折斷後座女乘客送醫不治記者林昭彰翻攝情侶的機車被撞到前叉折斷後座女乘客送醫不治記者林昭彰翻攝 __                    機車後座乘客林女撞到電線桿大量吐血昏迷送醫不治車禍現場留下大片血跡記者林昭彰翻攝   機車後座乘客林女撞到電線桿大量吐血昏迷送醫不治車禍現場留下大片血跡記者林昭彰翻攝機車後座乘客林女撞到電線桿大量吐血昏迷送醫不治車禍現場留下大片血跡記者林昭彰翻攝 __                    黃牌重機撞擊之後損壞程度並不嚴重記者林昭彰翻攝   黃牌重機撞擊之後損壞程度並不嚴重記者林昭彰翻攝黃牌重機撞擊之後損壞程度並不嚴重記者林昭彰翻攝     </t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>T1聯盟／網友驚見魔獸旗津與女伴約會 知情人士說明女方身分</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>https://udn.com/news/story/7003/7063996</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __       魔獸 魔獸魔獸   霍華德 霍華德霍華德 加盟桃園雲豹隊以來話題不斷除了場上表現外在風情萬種的他是否會在台灣傳出緋聞也是球迷茶餘飯後焦點日前有網友在發文表示朋友在旗津老街遇到霍華德與女伴約會引來球迷熱烈討論根據月日  _魔獸的新女友一文有網友目睹霍華德與一名女性牽手漫遊旗津老街親近的互動不禁讓人們懷疑兩者之間的關係不少網友都開玩笑他是在為年後的台灣籃壇努力之後將有第一個台灣人加入                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  不過也有自稱知情人士的人跳出來留言說明自己認識霍華德坦白說魔獸本人我是有接觸 他家也去過幾次他的大概的行程也參與過部分並指出該女性並非台灣人兩人只是陪伴關係對方就美國女人不用那麼繪聲繪影賽季已接近尾聲如承諾般待完整季的霍華德目前場均分籃板助攻或許不如外界設想般宰制聯盟但言行舉止帶來的話題卻已相當顯著                 世界棒球經典賽    _  經典賽即時新聞  _  最新比分與完整賽程  _  預賽分組戰績表  _  經典賽專欄分析     </t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>中環賣出長榮 處分利益約達800萬元</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>https://udn.com/news/story/7253/7062623</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __    光碟片大廠   中環 中環中環繼先前敲進長榮陽明後日宣布處分長榮持股處分利益約達萬元中環日代子公司   中嘉 中嘉中嘉國際投資公告處分   長榮海運 長榮海運長榮海運普通股交易數量達張每單位價格元交易總金額約達億元處分利益約達萬元                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  中環本月日才代子公司中嘉國際投資公告取得取得長榮海運普通股交易數量張每單位價格元交易總金額為億元此外中環日亦取得   陽明海運 陽明海運陽明海運普通股交易數量張每單位價格元交易總金額達億元     </t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>不滿陳建仁答詢狀況外 綠委林岱樺高分貝再飆官員：叫妳閉嘴</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>https://udn.com/news/story/6656/7062435</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __    民進黨立委   林岱樺 林岱樺林岱樺今天在   立法院 立法院立法院質詢傳銷產業議題指現行主管機關公平會是類司法組織不適合擔任主管機關呼籲交由經濟部接掌行政院長   陳建仁 陳建仁陳建仁不認同請身旁的公平會主委李鎂說明林岱樺不滿直接發飆說閉嘴本席在質詢叫妳閉嘴要求陳建仁回答並請他謙虛一點林岱樺長期關切傳產議題今天質詢她指公平會保守無作為無法帶動國內傳銷產業發展也無法防治變質多層次的傳銷詐騙造成傳銷業停滯不前認為公平會不適合擔任傳銷業主管機關                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  林岱樺主張應該由經濟部接掌傳銷產業只要將多層次傳銷管理和公平交易委員會組織法拿掉再將多層次傳銷管理增列在經濟部組織法中就可以完成林岱樺不滿陳建仁答詢內容認為陳揆未看清楚她質詢簡報內容這個產業我非常清楚院長請你謙虛一點雖然國事如麻還是交給副院長由他做幕僚單位綜合這些部會可以嗎陳建仁不斷提到韓國例子並請身邊的李鎂說明林岱樺不滿質疑陳揆和李鎂不斷講到韓國但是台灣否能像韓國一樣監理氣得發飆高分貝請李鎂閉嘴請陳建仁答詢林岱樺不滿陳建仁沒進入狀況也沒有看清楚簡報內容說自己每次質詢都花好幾個小時在準備並指韓國每筆資料都由政府監管且每家公司每年按照營業額提撥保證金懷疑台灣是否做得到陳建仁請林不要生氣允諾會召開協調會討論     </t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>MLB／留洛杉磯卻非天使？專家預測道奇將用11年大約簽下大谷</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>https://udn.com/news/story/6999/7063692</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __       大谷翔平 大谷翔平大谷翔平將在本休賽季成為自由球員屆時勢必引起各隊競逐根據 記者鮑登 預測   道奇 道奇道奇隊這個冬天將以超大合約簽下這名巨星雖然有大谷楚奧特Ｍ 兩指標球星在內   天使 天使天使隊戰績卻持續不振季後賽荒至今尚未破除除了多次重申渴望打入季後賽外大谷也曾表示對於球隊表現感到失望這使得他在下賽季轉投他處的可能性越來越高                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  作為投打皆是王牌等級的球星各豪門球隊想撒大錢網羅大谷早已不是新聞   大都會 大都會大都會   教士 教士教士等隊皆為可能下家不過鮑登在他的  _開季預測中表示大谷將前往洛杉磯的另一支球隊大谷會投入自由市場並和道奇簽下年合約合約總額億美金的球員此外鮑登也認為大谷將在本季收下生涯第二座美聯上次他獲得該獎項為年上季雖然也呼聲頗高最終卻敗給揮出發全壘打的賈吉 屈居排行第二另外鮑登預測的國聯為勇士隊亞古納  大谷解決楚奧特帶領日本拿下冠軍並成為本屆經典賽後在棒球界地位更上一層樓若他真如預測所言來到同城卻更具聲量的道奇或許將成為世上最有名的球星                 世界棒球經典賽    _  經典賽即時新聞  _  最新比分與完整賽程  _  預賽分組戰績表  _  經典賽專欄分析     </t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>獨／顏寬恒原本鐵了心拒保 顏清標父子僵3小時軟化</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>https://udn.com/news/story/122555/7064238</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __    國民黨前立委   顏寬恒 顏寬恒顏寬恒無預警遭檢調詢問與千萬交保投下政壇震撼彈顏寬恒今早出面說明原打算拒絕交保幾經波折才同意據了解顏寬恒與   顏清標 顏清標顏清標父子隔空對話兩三小時顏寬恒原本鐵了心不交保抗議司法不公但幕僚紅著眼眶直說這樣太刺激標哥身體最後顏寬恒才同意籌措保金交保檢調動作突然據了解顏寬恒昨晚從自宅被帶走他對檢調所說的案情無法接受認為是舊案重炒當聽到妻子以萬元交保時他當下決定拒絕交保因為早在去年補選時就把違建案情交代清楚現在卻又舊案重提要抗議司法不公                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  據了解顏清標聽到幕僚轉述顏寬恒要拒絕交保顏清標非常震驚當時連手拿東西手都拿不穩頻頻要幕僚溝通平安回來最重要顏寬恒反駁說今天千萬交保就被綠營壓著打什麼都說不清楚了顏家父子對峙個小時後來幕僚告訴顏寬恒標哥情緒激動怕太刺激標哥身體最後顏才同意交保據轉述顏寬恒要抗議司法不公但顏清標認為人回來就好平安就好也怕顏寬恒會被抓起來父子來回溝通讓幕僚也紅了眼眶對於舊案再提顏寬恒今早出面說明但難掩沮喪情緒 __                    國民黨前立委顏寬恒昨晚遭檢調帶走最後以千萬元交保他今早出面澄清質疑司法不公記者黃仲裕攝影   國民黨前立委顏寬恒昨晚遭檢調帶走最後以千萬元交保他今早出面澄清質疑司法不公記者黃仲裕攝影國民黨前立委顏寬恒昨晚遭檢調帶走最後以千萬元交保他今早出面澄清質疑司法不公記者黃仲裕攝影     </t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>清明過後財神護祐！「4生肖」有暴富運 第一名錢財生生不息</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>https://udn.com/news/story/7268/7060974</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __    清明連假後許多人的   運勢 運勢運勢開始轉變有好有壞各有不同然而有些人的   財運 財運財運將要在清明過後開始爆發這讓自己難以置信的好運勢是否屬於你呢以下一一揭曉最強財運的四個生肖 __第四名生肖狗整體而言前段時間在財運上可能有些不如意或是無法達成自己所想要的目標但是過了清明之後就要雲開見日財運逐漸邁向平穩順遂的道路你可以選擇輕鬆悠哉的生活收支平衡穩定入財或是採取積極態度膽大心細的入場投資讓自己的財庫更加飽滿簡單而言清明過後的你只要自己願意努力財富就有機會往上累積收穫豐碩的果實                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播   __第三名生肖猴前幾個月的財運起起落落時好時壞有時候感覺自己彷彿大海撈針白白浪費了許多心力實在是難以有收穫但是不要憂鬱從清明過後自己的財運將要開始抬頭如果有夥伴要找你一起投資可以多加詳談討論會找到非常好的目標如果要創業也可以開始準備對於非固定薪資的人更要加把勁你會發現許多獲利管道讓財運不斷的漸漸開始湧入 __第二名生肖鼠生意場上的人準備要開始走運了有機會接獲不錯的訂單或簽下獲利頗多的合約如果是餐飲業者業績將要不斷的向上攀升但是有一點必須提醒因為財運來得很快容易有自滿的現象建議你要常保謙虛的笑容善待每一名客戶千萬記住眼光要遠回頭客才是你真正的財神爺一般上班族則可以開始充實自己的能力這些技能將會在未來帶來豐富的入財 __第一名生肖馬當財神爺選中你時就像摸彩獲得   頭獎 頭獎頭獎一般上天都要為你撒花了   清明節 清明節清明節過後這難得的幸運兒非你莫屬財運如魚得水無往不利能夠生生不息的不斷翻轉讓你在各方面都有獲利的機會雖然擁有好運勢但是自己一定要努力這波運勢屬於付出與收穫的因果如果只想等天上掉下餡餅那不如直接去市場買一個會比較快所以千萬記住自己要先好好努力才不會浪費了大好運   此為民俗說法不代表本新聞網立場切勿過度迷信      </t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/udn.xlsx
+++ b/udn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>超商沒生意淪「領貨店」 店長求顧客多消費：已吃土三個月</t>
+          <t>開房費這樣省？大白天上演活春宮 修車廠監視器全都錄</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/120912/7062723</t>
+          <t>https://udn.com/news/story/7317/7078862</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> __     __                    來自超商店長的溫情喊話圖擷自爆廢公社二館   來自超商店長的溫情喊話圖擷自爆廢公社二館來自超商店長的溫情喊話圖擷自  _爆廢公社二館台灣四大超商互相競爭日前有網友拍下某超商店內老闆的溫情喊話告示牌希望顧客們領貨時能多多消費對此原首次領貨時順便買了一罐茶有網友則表示完全能理解包裹對於超商而言真的只是做服務還有其他人紛紛指出超商的缺點                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  有網友在臉書社團   爆廢公社 爆廢公社爆廢公社二館貼出一張超商的告示牌  _指出老闆已吃土三個月在享受無償代收服務的同時還請顧客們多多消費藍色字體寫道口渴了帶瓶飲料嘴饞了買個零食肚子餓了帶個泡麵鮮食讓辛苦為您進貨整理包裹的店員能夠有個基本的營運收入做包裹超商基本上和做公益事業沒兩樣包裹帳單煙酒單件的收入元請個工讀生的薪資都還不夠原感受出店長的無奈表示現在的超商就是領貨店不少人只領貨不買東西導致加盟主沒賺頭直呼日前看到這個溫情喊話後第一次領貨時順便買罐茶部分網友表示都寫那麼明了如果確實有享受到服務捧個場不為過啦完全能理解包裹對於超商而言真的只是做服務的不過有人對此並不領情認為那你去跟公司反映別道德綁架消費者許多人也指出超商的缺點現在的商品越來越少貨架撤很多幾乎都是放寄取貨的商品跟萊爾富的飲料選擇真的不多而且像微波食品例如便當或者飯糰也都不多也沒什麼在辦集點活動的熟食超難吃好意思說萊爾富最大問題是保存環境與保鮮時間跟退貨制度的制定造成產品不新鮮或過度冷藏認真說很多店一進店裡面某種味道根本不會想購物     </t>
+          <t xml:space="preserve"> __    桃園平鎮一間修車廠昨恰逢店休不過竟有一對男女開著   計程車 計程車計程車至修車廠前由計程車作為掩護上演一場活春宮完事過後更到旁邊隨意小解才離去不過誇張行徑全都被修車廠   監視器 監視器監視器錄下讓人直呼省房費也不是這樣省的吧有民眾在爆料公社發文寫下平鎮某修車廠門口清明連假  房間不好訂的故事哈囉  連假修車廠店休 這位先生小姐門口你這樣搞 甘丟省房費也不是這樣省的吧還上了一趟廁所  真的只能無言以對相當無奈                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  只見原上傳的照片可看見人停好車後以車輛為掩護大膽的辦起事更至一旁尿尿完全忽略店家監視器貼文一出許多網友也瘋狂留言只看照片我以為車子壓到人大白天的就以為車子遮住了沒人會看見肉身擋車錢真懂玩哪裡來的勇氣 是梁靜茹嗎錢不錢不重要重要的是刺激原相當無奈表示相當傻眼沒想到大白天發生這種事更寫下下次辦事可以去開房舉頭三尺有神明下次記得抬頭看看有沒有監視器 __                    桃園平鎮一間修車廠昨恰逢店休不過竟有一對男女開著計程車至修車廠前上演一場活春宮完事過後更到旁邊隨意小解才離去圖翻攝自臉書爆料公社   桃園平鎮一間修車廠昨恰逢店休不過竟有一對男女開著計程車至修車廠前上演一場活春宮完事過後更到旁邊隨意小解才離去圖翻攝自臉書爆料公社桃園平鎮一間修車廠昨恰逢店休不過竟有一對男女開著計程車至修車廠前上演一場活春宮完事過後更到旁邊隨意小解才離去圖翻攝自臉書爆料公社 __                    桃園平鎮一間修車廠昨恰逢店休不過竟有一對男女開著計程車至修車廠前由計程車作為掩護上演一場活春宮圖翻攝自臉書爆料公社   桃園平鎮一間修車廠昨恰逢店休不過竟有一對男女開著計程車至修車廠前由計程車作為掩護上演一場活春宮圖翻攝自臉書爆料公社桃園平鎮一間修車廠昨恰逢店休不過竟有一對男女開著計程車至修車廠前由計程車作為掩護上演一場活春宮圖翻攝自臉書爆料公社     </t>
         </is>
       </c>
     </row>
@@ -476,17 +476,177 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>最終創下自己新紀錄！ 女子跑馬拉松肚痛邊跑邊解放嚇壞眾人</t>
+          <t>哪間是男廁？門外標誌貼「徒手抓兔兔」看不懂 內行人曝正確答案</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6810/7062760</t>
+          <t>https://udn.com/news/story/6812/7078163</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> __    到底是有多想破紀錄國外一名女子為了突破自己的馬拉松紀錄寧願邊跑邊大便也不肯停下上廁所最後終於成功創下自己的新紀錄據紐約郵報  _  報導歲的塔瑪拉 在年時參加了加州當地一場馬拉松當時她剛生完小孩不久希望能夠帶著新手媽媽能量破紀錄在這次參加馬拉松之前她已經參加過次馬拉松因此她絲毫不覺得這次馬拉松會出什麼問題                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  不料當天她在馬拉松中途時突然很想上廁所但是塔瑪拉真的很想破紀錄所以決定繼續跑下去她在受訪時說雖然不知道能不能邊跑邊拉但她真的不想讓便便搞砸一切所以決定邊跑邊大雖然已經大在褲子上但塔瑪拉仍繼續帶著便便向前跑最後以小時分鐘的成績打破自己的紀錄完成整趟馬拉松對於自己大在褲子上塔瑪拉一點也沒有不好意思她甚至還在抵達終點時開心地跟親友說我大在褲子上她說自己不在乎別人怎麼看跑者通常也不會批判別人而她到現在也正常參加馬拉松並沒有因此留下任何陰影     </t>
+          <t xml:space="preserve"> __    隨著疫情趨緩出國旅遊的人潮也逐漸增加日前一名網友在   泰國 泰國泰國見到奇特的景象只見廁所的標誌相當與眾不同其中一個是拿著花的人影另一個則是疑似抓住兔子耳朵的人形讓他感到相當困惑不僅第一眼很難辨識出男女廁也好奇背後到底有什麼寓意日前一名網友  _在推特上貼出泰國廁所的標誌從圖片可見一扇門前貼有一位女性的人影手上還拿著一朵花而另一扇門則相當特別是一個疑似男性的人影徒手抓   兔兔 兔兔兔兔的詭異構圖奇特的景象也讓該網友相當驚訝在貼文驚呼女廁我能明白男廁這不是兔子嗎                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  貼文曝光後隨即吸引大批網友討論熟悉泰國當地文化的網友也跳出來解釋手上拿花的是女廁手握兔子的則是男廁該標誌其實源自於泰國的俚語因過去人們在草原打獵生活要去廁所時為了注意禮貌女生會說要去摘花男生則會稱要去獵隻兔子網友們也嘖嘖稱奇我都不知道原來獵兔子是去洗手間的意思在日本會說打野雞到泰國要改說兔子也有人開玩笑稱看起來很像拿著胡椒研磨罐我以為他拿炸藥我看成兔子卡在手上部分網友則認為該標誌很像日本動漫蠟筆小新會出現的畫面我覺得右邊抓兔子圖是妮妮的媽媽這是妮妮的媽媽吧       右がネネちゃんのママかと笑   ﾀ　ﾐ　ぉ   _年月日   </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>影／人蛇控制？台中女大生失聯8天 中警追出她獨身搭機赴英轉泰</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7315/7079050</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> __                台中市靜宜大學林姓女大生原與家人約定在清明連假返家但因遲遲未見人影家屬在上月底在臉書社團張貼尋人啟事擔心女兒被   人蛇集團 人蛇集團人蛇集團等不法歹徒控制人身自由台中市刑大與清水警分局成立專案小組偵辦經調查林女搭機出國時是獨自一人先前往英國後轉赴泰國是否有歹徒介入正在釐清中就讀靜宜大學的歲林姓女大生在上月日失聯家屬在臉書社團沙鹿之美刊登尋人啟事提供女兒的長相特徵希望網友幫忙協尋家屬也擔心女兒遭到人蛇集團等歹徒控制人身自由從事不法                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  全案由清水警分局偵辦後與台中市刑大共組專案小組並報請台中地檢署檢察官指揮專案小組先在林女租屋處學校周邊調閱監視器發現林女在上月日上午時許離開宿舍後就行方不明林女手機也沒有隨身攜帶警方查出林女還有申辦另支手機關機時間是上月日上午時許最後的通聯基地台位置是桃園市大園區航站南路一帶判斷林女恐已搭機出國另向移民署調閱出入境資料後確認林女是在日上午搭機前往英國倫敦當時林女沒有遭人控制人身自由的跡象不過專案小組發現林女在旅途中入境泰國目前尚無法排除林女遭詐騙出國得可能性正在釐清林女平時交往對象釐清案情 __                    台中市林姓女大生在上月日上午在沙鹿區台灣大道的學校周邊步行記者陳宏睿翻攝   台中市林姓女大生在上月日上午在沙鹿區台灣大道的學校周邊步行記者陳宏睿翻攝台中市林姓女大生在上月日上午在沙鹿區台灣大道的學校周邊步行記者陳宏睿翻攝 __                    台中市林姓女大生失聯天家屬在臉書社團刊登尋人啟事圖摘自臉書沙鹿之美   台中市林姓女大生失聯天家屬在臉書社團刊登尋人啟事圖摘自臉書沙鹿之美台中市林姓女大生失聯天家屬在臉書社團刊登尋人啟事圖摘自臉書沙鹿之美 __                    台中市林姓女大生失聯天台中市刑大與清水警分局成立專案小組偵辦圖本報資料照   台中市林姓女大生失聯天台中市刑大與清水警分局成立專案小組偵辦圖本報資料照台中市林姓女大生失聯天台中市刑大與清水警分局成立專案小組偵辦圖本報資料照     </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>冷氣出風口被塞1條灰色抹布！台南妹好奇伸手戳竟然會動 真相曝光嚇尿了</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7470/7078059</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> __    有時候   冷氣 冷氣冷氣口出現奇怪的抹布可能要注意一下台南一名女網友某天睡醒發現自己房間的冷氣出風口被塞了一條灰色破抹布她好奇想說是誰會在那邊放抹布伸手一戳抹布竟然動起來仔細一瞧竟是一條活生生的   蛇 蛇蛇女網友被嚇到當場驚聲尖叫 _ _台南一名女網友莊淑茜日在臉書社團野生蛇相貼出三張照片文表示早上起來睜眼發現冷氣出風口處被塞了一條抹布好奇湊近伸出手指戳戳看結果沒想到沒戳沒事情一戳直接嚇死抹布竟然長出了個豆豆眼嚇得莊姓女網友放聲大叫呼喊家人來幫忙                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播   __                    蛇被莊姓女子戳了一下探出頭來一雙豆豆眼跟女網友四目相接 圖網友莊淑茜授權提供未經同意請勿任意轉載   蛇被莊姓女子戳了一下探出頭來一雙豆豆眼跟女網友四目相接 圖網友莊淑茜授權提供未經同意請勿任意轉載蛇被莊姓女子戳了一下探出頭來一雙豆豆眼跟女網友四目相接 圖網友莊淑茜授權提供未經同意請勿任意轉載莊姓女網友表示沒想到塞在冷氣出風口的抹布竟然是一條蛇目前這之蛇已經被專業人士抓走我房間在二樓台南鄉下房間外面有一排一樓高的樹叢紗窗也沒破洞冷氣本身的洞有封矽利康還是想不通牠蛇怎麼爬上冷氣的貼文曝光後吸引千名網友討論網友留言表示看過幾次蛇爬牆的影片真心佩服牠們的攀爬能力之前也有蛇爬進我鄰居家樓的冷氣裡我鄰居也很納悶蛇是怎麼沿著水泥牆爬上樓的莊姓女網友事後指出她自己有在懷疑蛇是不是從房子內部上去的但勢必會經過她睡的床我也不是很希望有這個可能有專業網友點出問題所在留言詢問冷氣室外冷媒管是否有纏膠帶莊姓女子說雖然有纏膠帶但因為西曬嚴重的關係已有破損狀況且銅管外露專業網友指出蛇應該是因為這樣才會從縫隙鑽進去通常山區都會建議客戶不要纏膠帶畢竟會跑些有的沒的進去提醒網友們要特別注意冷氣管線的問題 __                    莊姓女網友將蛇抓下來後放進有打洞透氣的瓶子裡交由專業人士處理 圖網友莊淑茜授權提供未經同意請勿任意轉載   莊姓女網友將蛇抓下來後放進有打洞透氣的瓶子裡交由專業人士處理 圖網友莊淑茜授權提供未經同意請勿任意轉載莊姓女網友將蛇抓下來後放進有打洞透氣的瓶子裡交由專業人士處理 圖網友莊淑茜授權提供未經同意請勿任意轉載     </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>兇猛巨狼闖牧場獵食！藏獒英勇護家上前單挑「一口咬掉野狼尾巴」神戰術完勝</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7470/7078182</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> __       狗狗 狗狗狗狗永遠都是人最好的朋友日前一段影片在網路上掀起熱議一隻野狼趁著牧民不注意時潛入農場想要抓捕牛羊來吃結果牧民飼養的   藏獒 藏獒藏獒發現有入侵者立刻衝上前去霸氣迎戰一獒一狼激烈纏鬥後藏獒竟然霸氣直接咬下   灰狼 灰狼灰狼的尾巴最後還是牧民衝上前去將受傷的野狼放生才結束這場戰鬥綜合陸媒報導大陸青海省玉樹市一名牧民飼養了一隻藏獒該隻藏獒相當忠誠勇猛平時會幫助自己的主人放牧牛羊月日的時候一隻野生灰狼趁著牧民不注意的時候溜進牧場裡面想要抓捕牛羊來吃過沒多久立刻被藏獒發現護家心切的藏獒立刻飛奔上前去阻止外來者入侵                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  從牧民拍攝的影片可以看到藏獒體型比野狼還稍微小了一點但牠卻對眼前飢餓的入侵者沒有絲毫畏懼衝上前就是一陣撕咬攻擊一獒一狼纏鬥許久還在地上打滾最後藏獒竟然出奇不意一口咬掉野狼的尾巴野狼尾巴被咬掉後鮮血淋漓出現大傷口但野狼也完全沒有要退讓的意思依然在原地與藏獒持續對峙最後牧民跑過去阻止一獒一狼的戰鬥並決定將這隻已經受傷的狼放生這才結束獒狼大戰影片曝光後吸引不少網友熱議網友留言表示藏獒戰鬥力真的滿點霸氣藏獒英勇護主守護了主人的牧場真的是打得很兇看得出來這隻野狼應該餓很久尾巴都被咬掉還沒有逃走    _  _     __         </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>阿伯的高麗菜「超重」每顆10元 明上午斗六限時特賣</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7326/7078216</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> __       雲林 雲林雲林縣是全台   高麗菜 高麗菜高麗菜重要產區之一今年因產量多價格下跌西螺果菜市場批發平均價格上月最低價不到元目前已回升至每公斤元不過菜農仍不敷成本   民進黨 民進黨民進黨雲林縣黨部今天包場力邀民眾下田採收顆元顆自己帶回家顆會捐給水林的社區長青食堂加菜明天上午點起也會在立法委員劉建國斗六服務處門口叫賣顆元水林鄉塭底村長黃志金和友人共同栽種近公頃的高麗菜因目前產量多價格低契作盤商不收購直接耕鋤還得多付出成本索性配合民進黨雲林縣黨部作法開放其中分地供民眾自採並做公益現場約有萬多顆每顆重量達至公斤                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  民進黨雲林縣黨部主委林金忠說黨主席賴清德希望黨朝公益團體發展為社會盡一份力為此黨部為了幫助菜農規畫採高麗菜做公益活動民眾自採顆元俗擱大碗顆自用顆黨部幫大家捐給社區長者發揮贏成效來自嘉義朴子的黃姓縣民今天與友人合開一輛公噸貨車前來搬菜陸續下田採摘多顆高麗菜每一顆份量十足一度得借用園主的採收車才有辦法運到車上林金忠說明天上午點至點半黨部會在立委劉建國斗六服務處門口叫賣顆元歡迎民眾用新台幣支持菜農 __                    嘉義縣民今有人一起開貨車到雲林水林採高麗菜不一會兒後車斗已裝滿百顆記者陳苡葳攝影   嘉義縣民今有人一起開貨車到雲林水林採高麗菜不一會兒後車斗已裝滿百顆記者陳苡葳攝影嘉義縣民今有人一起開貨車到雲林水林採高麗菜不一會兒後車斗已裝滿百顆記者陳苡葳攝影 __                    雲林縣水林鄉塭底村長黃志金和友人開放高麗菜田讓民眾自採顆元自採顆帶回家另顆由民進黨雲林縣黨部代表捐給水林的社區長青食堂加菜記者陳苡葳攝影   雲林縣水林鄉塭底村長黃志金和友人開放高麗菜田讓民眾自採顆元自採顆帶回家另顆由民進黨雲林縣黨部代表捐給水林的社區長青食堂加菜記者陳苡葳攝影雲林縣水林鄉塭底村長黃志金和友人開放高麗菜田讓民眾自採顆元自採顆帶回家另顆由民進黨雲林縣黨部代表捐給水林的社區長青食堂加菜記者陳苡葳攝影 __                    來自嘉義朴子的黃姓縣民今與友人合力採摘多顆高麗菜一度得借用園主的採收車才有辦法運到車上記者陳苡葳攝影   來自嘉義朴子的黃姓縣民今與友人合力採摘多顆高麗菜一度得借用園主的採收車才有辦法運到車上記者陳苡葳攝影來自嘉義朴子的黃姓縣民今與友人合力採摘多顆高麗菜一度得借用園主的採收車才有辦法運到車上記者陳苡葳攝影     </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>新店93歲婦穿全身紅留遺書亡 政治教授兒低調無意見</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7320/7079107</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> __    新北市新店區歲明陳姓老婦人昨晚時許為外籍看護發現鼻封膠帶嘴部留有綠色嘔吐物倒臥在房內經送醫後不治警方在現場發現遺書初步排除有外力介入據了解陳婦為知名台大政治系名譽教授的母親婦人兒子昨至警局做筆錄對死因低調未表示意見今將報請台北地檢署辦理司法相驗據了解陳婦平日獨居在新店區環河路大型社區由歲印尼籍看護照顧生活起居本月日休假結束返回發現穿著全身紅衣紅褲的陳婦臥在地上但口鼻貼有膠帶失去意識立即奪門而出找鄰居求助並報警                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  據悉屋內留有遺書自述年邁久病身體及精神均不堪負荷才走上不歸路由於現場門窗均無遭破壞或打鬥痕跡陳婦口中流出藍綠色不明液體及嘔吐物確實死因有待相驗後進一步確認警方並依檢察官指示將嘔吐物送檢驗釐清成分陳婦兒子為知名台大政治系名譽教授經常受各大媒體邀請進行政治評論及相關議題分析其子昨晚到警局製做筆錄對死因低調未表示意見警方今將報請台北地檢署檢察官相驗來進一步確認死因 __ 提醒您若您或身邊的人有心理困擾可撥打依舊愛我安心專線 __                    示意圖   示意圖示意圖     </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>清明燒近400萬賓士車給祖先？ 倒楣車主盼揪公墓放火者求償</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7320/7078179</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> __    今天   清明節 清明節清明節屏東   墾丁 墾丁墾丁南灣大山母山旁的公墓又傳火警輛車價近萬元的   賓士 賓士賓士車剛巧停在公墓草地上慘遭野火波及   車主 車主車主表示他是前往登山車停公墓途中驚見公墓起火返回查看赫見車頭已被野火燒毀盼揪出放火者求償這起公墓火警發生在上午近許恆春消防分隊據報趕往現場因面積不大很快撲滅火勢但停在公墓旁的賓士車車頭已被燒毀引擎受創嚴重幾輛車已難回復                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  警消初步調查火勢來源不明現場未發現有民眾祭祀焚燒金紙也沒有掃墓放火除草的跡象正由消防局火調單位釐清中當地民眾看狀驚嘆燒萬賓士給祖先未免也太有誠意了 __                    停在墾丁南灣大山母山旁公墓被野火波及的賓士車車頭包括引擎全毀圖縣消防局提供   停在墾丁南灣大山母山旁公墓被野火波及的賓士車車頭包括引擎全毀圖縣消防局提供停在墾丁南灣大山母山旁公墓被野火波及的賓士車車頭包括引擎全毀圖縣消防局提供 __                    停在墾丁南灣大山母山旁公墓被野火波及的賓士車車頭包括引擎全毀圖縣消防局提供   停在墾丁南灣大山母山旁公墓被野火波及的賓士車車頭包括引擎全毀圖縣消防局提供停在墾丁南灣大山母山旁公墓被野火波及的賓士車車頭包括引擎全毀圖縣消防局提供 __                    停在墾丁南灣大山母山旁公墓被野火波及的賓士車車頭包括引擎全毀圖縣消防局提供   停在墾丁南灣大山母山旁公墓被野火波及的賓士車車頭包括引擎全毀圖縣消防局提供停在墾丁南灣大山母山旁公墓被野火波及的賓士車車頭包括引擎全毀圖縣消防局提供 __                    停在墾丁南灣大山母山旁公墓被野火波及的賓士車車頭包括引擎全毀圖縣消防局提供   停在墾丁南灣大山母山旁公墓被野火波及的賓士車車頭包括引擎全毀圖縣消防局提供停在墾丁南灣大山母山旁公墓被野火波及的賓士車車頭包括引擎全毀圖縣消防局提供     </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>普發現金逾1060萬筆陸續入帳 這天起開放ATM領取</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/123271/7078053</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> __    清明連假到了尾聲連假期間民眾陸續領到   普發現金 普發現金普發現金元金融單位的加速處理也讓民眾在這個連假獲得小確幸對此數位部表示沒有上網登記想領現金的民眾也不用緊張月日起可至    領取現金月日起也可至郵局臨櫃領現根據數位部統計目前元首波登記加上直接入帳的送出交易筆數已經超過餘萬筆直接入帳跟首波登記入帳的民眾只要資料帳號無誤會陸續在月日至月日期間完成入帳                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  數位部表示還是要感謝各金融機構中華郵政農漁會協助連假期間到月日間陸續撥款不過可能由於部分民眾帳戶是警示帳戶帳戶結清或輸入資料錯誤等導致沒能撥款成功的狀況若是連假期間登記民眾會在日至日陸續入帳日後登記則會在登記後二個工作日入帳指定帳戶民眾如果發現入帳失敗可以重新到  _官網登記或是之後到與郵局臨櫃領取另外想要領取現金的民眾也不用緊張月日起就可在領取任何一家提款卡都可以領現由政府吸收手續費但須認明普發現金識別貼紙機台開放有台銀土銀合庫一銀華銀彰銀國泰兆豐台企玉山台新中信郵局永豐元大等共家本人領取須輸入身分證字號和健保卡號父母監護人其中人可以替未滿歲的子女代領日起則是全國郵局儲匯櫃檯營業時段開放領現須攜帶健保卡若無健保卡可攜帶身分證或居留證正本最後數位部也提醒所有領取普發現金元管道都開放至月日不用趕都領得到     </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>郭台銘表態選總統！國民黨陷三人角力 他嘆全在做這事：遺憾</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/123307/7078501</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> __    鴻海創辦人   郭台銘 郭台銘郭台銘今日結束訪美行程抵台上午宣布將全力爭取   國民黨 國民黨國民黨年總統候選人提名同時也替年前負氣離開國民黨致歉日本產經新聞台北支局長   矢板明夫 矢板明夫矢板明夫表示整場記者會沒有聽到郭想要捍衛的價值觀直言郭台銘   侯友宜 侯友宜侯友宜及   朱立倫 朱立倫朱立倫三人一直在算計得失誰也不願說清自己的理念實在是一件令人遺憾的事情針對郭台銘宣布爭取披藍袍選總統矢板明夫在臉書  _發文表示令人感到意外的是郭台銘沒有強調捍衛中華民國等藍營常用的口號反而強調拚經濟聯合非綠勢力避戰等一些相對中性的詞語                      _ 投遞調整置底  權重 ____       ___ 文中大佈告_                _直售   _聯播  矢板明夫認為郭台銘此舉應是想和前總統馬英九做出區隔試圖爭取中間選民的支持另外矢板明夫指出郭此舉使一直不願正面回應的新北市長侯友宜十分尷尬而郭侯兩雄相爭的局面白熱化也讓尚未完全放棄爭取大位的國民黨主席朱立倫獲得一些輾轉騰挪的空間接著矢板明夫話鋒一轉他認為國民黨總統人選侯郭朱都還有機會但在這場警察商人與會計師的競爭角力之中三人都在不斷地算計得失沒有一個人願意說清楚自己的理念實在是一件令人遺憾的事情而今日的記者會郭台銘沒有明顯表達想要捍衛的價值觀是什麼矢板明夫納悶拚經濟是否包括繼續和中國全面合作面對美國晶片圍堵策略該如何應對台灣不喜歡民進黨執政的人有各種反對的理由但郭董要用什麼樣的價值觀聯合非綠勢力至於避戰矢板明夫指出主動挑起紛爭的是北京政權若要打消習近平武力犯台的念頭需要做出何種讓步直言非常想聽到郭台銘的完整論述主張最後矢板明夫認為郭台銘是一位非常成功的商人一路以來應該十分在意產品的價格但回到選總統這件事情矢板明夫直言民眾更在乎價值            </t>
         </is>
       </c>
     </row>
